--- a/src/main/resources/com/example/convert_toriai_pdf_to_excel/sampleFiles/sample files.xlsx
+++ b/src/main/resources/com/example/convert_toriai_pdf_to_excel/sampleFiles/sample files.xlsx
@@ -5,28 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HuanTech PC\IdeaProjects\convert toriai pdf to excel\src\main\resources\com\example\convert_toriai_pdf_to_excel\sampleFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Desktop-nbguk0t\don_hang-du_lieu\注文-DON HANG\MẪU LÀM ĐƠN\test may cat\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19335" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="sample" sheetId="2" r:id="rId1"/>
+    <sheet name="sample" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">sample!$A$1:$T$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">sample!$A$1:$T$12</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">sample!$1:$6</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
-  <si>
-    <t>注番</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>母材長</t>
   </si>
@@ -85,9 +82,6 @@
     <t>あと</t>
   </si>
   <si>
-    <t>単重</t>
-  </si>
-  <si>
     <t>サイズ</t>
   </si>
   <si>
@@ -105,18 +99,91 @@
   <si>
     <t>取合延</t>
   </si>
+  <si>
+    <t>単重</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>注番</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>TÍNH TỔNG CHIỀU DÀI SẢN PHẨM Ô A7 ĐÃ SỬ DỤNG TẠI Ô D7, BAO GỒM CẢ KIRIROSU =($A7+$K$3)*D7</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>TÍNH TỔNG CHIỀU DÀI BOZAI TẠI Ô D4, TÍNH CẢ SỐ L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ỢNG =D4*D5</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>TÍNH TỔNG SỐ L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ỢNG BOZAI Ô D4 ĐÃ SỬ DỤNG TRONG Ô D7 =D7*D$5 </t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -170,13 +237,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.49995422223578601"/>
+        <fgColor theme="0" tint="-4.9958800012207406E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9958800012207406E-2"/>
+        <fgColor theme="0" tint="-0.49995422223578601"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,10 +364,10 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -310,10 +377,10 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -334,43 +401,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -408,17 +445,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -442,14 +468,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -459,9 +498,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -481,11 +518,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -500,6 +541,32 @@
       </right>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -509,152 +576,158 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -948,180 +1021,187 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AN197"/>
+  <dimension ref="A1:BI199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="6.625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="6.625" style="11" customWidth="1"/>
-    <col min="19" max="19" width="6.875" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.625" style="11" customWidth="1"/>
-    <col min="21" max="22" width="9" style="11"/>
+    <col min="1" max="2" width="6.625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="18" width="6.625" style="10" customWidth="1"/>
+    <col min="19" max="19" width="7.625" style="10" customWidth="1"/>
+    <col min="20" max="20" width="6.625" style="10" customWidth="1"/>
+    <col min="21" max="22" width="9" style="10"/>
     <col min="23" max="25" width="9" style="2"/>
-    <col min="26" max="40" width="9" style="2" hidden="1" customWidth="1"/>
-    <col min="41" max="16384" width="9" style="2"/>
+    <col min="26" max="41" width="9" style="2" hidden="1" customWidth="1"/>
+    <col min="42" max="61" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="62" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:61" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="18"/>
+      <c r="T1" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:61" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="15"/>
-      <c r="T1" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="11"/>
+      <c r="P2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="11"/>
+      <c r="T2" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:61" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="11">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="11">
+        <v>2</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="11"/>
+      <c r="P3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" s="10"/>
-      <c r="T2" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="10">
-        <v>2</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="10"/>
-      <c r="P3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>6</v>
-      </c>
       <c r="R3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="S3" s="24" t="e">
+        <v>12</v>
+      </c>
+      <c r="S3" s="23" t="e">
         <f>T4/T5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+      <c r="U3" s="37"/>
+      <c r="AQ3" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:61" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -1139,18 +1219,79 @@
       <c r="Q4" s="16"/>
       <c r="R4" s="16"/>
       <c r="S4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="T4" s="18">
-        <f>C3*(D4*D5+E4*E5+F4*F5+G4*G5+H4*H5+I4*I5+J4*J5+K4*K5+L4*L5+M4*M5+N4*N5+O4*O5+P4*P5+Q4*Q5+R4*R5)/1000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="T4" s="17">
+        <f>C3*SUM(AP4:BF4)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="37"/>
+      <c r="AQ4" s="2">
+        <f>D4*D5</f>
+        <v>0</v>
+      </c>
+      <c r="AR4" s="2">
+        <f t="shared" ref="AR4:BE4" si="0">E4*E5</f>
+        <v>0</v>
+      </c>
+      <c r="AS4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AV4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AW4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AX4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BA4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BB4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BC4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BD4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BE4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:61" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1165,24 +1306,31 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
       <c r="S5" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T5" s="26">
-        <f>S8*C3/1000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+      <c r="T5" s="20">
+        <f>S10*C3/1000</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="37"/>
+      <c r="Z5" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ5" s="36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="33"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1197,47 +1345,48 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="T6" s="35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="23">
-        <f t="shared" ref="S7" si="0">A7*B7</f>
-        <v>0</v>
-      </c>
-      <c r="T7" s="20">
-        <f t="shared" ref="T7" si="1">B7-(D7*D$5+E7*E$5+F7*F$5+G7*G$5+H7*H$5+I7*I$5+J7*J$5+K7*K$5+L7*L$5+M7*M$5+N7*N$5+O7*O$5+P7*P$5+Q7*Q$5+R7*R$5)</f>
-        <v>0</v>
-      </c>
+      <c r="R6" s="26"/>
+      <c r="S6" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="T6" s="31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:61" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="32"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="28">
+        <f t="shared" ref="S7:S9" si="1">A7*B7</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="30">
+        <f>B7-SUM(AP7:BF7)</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="37"/>
       <c r="Z7" s="2">
-        <f t="shared" ref="Z7:AN7" si="2">($A7+$K$3)*D7</f>
+        <f>($A7+$K$3)*D7</f>
         <v>0</v>
       </c>
       <c r="AA7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AA7:AN7" si="2">($A7+$K$3)*E7</f>
         <v>0</v>
       </c>
       <c r="AB7" s="2">
@@ -1292,228 +1441,571 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="5">
-        <f>SUM(Z6:Z8)</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <f t="shared" ref="E8:R8" si="3">SUM(AA6:AA8)</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="AQ7" s="2">
+        <f t="shared" ref="AQ7:BC9" si="3">D7*D$5</f>
+        <v>0</v>
+      </c>
+      <c r="AR7" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G8" s="5">
+      <c r="AS7" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="5">
+      <c r="AT7" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I8" s="5">
+      <c r="AU7" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J8" s="5">
+      <c r="AV7" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="5">
+      <c r="AW7" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L8" s="5">
+      <c r="AX7" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="5">
+      <c r="AY7" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N8" s="5">
+      <c r="AZ7" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O8" s="5">
+      <c r="BA7" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P8" s="5">
+      <c r="BB7" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="BC7" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R8" s="5">
+      <c r="BD7" s="2">
+        <f t="shared" ref="BD7:BE7" si="4">Q7*Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="BE7" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BH7" s="36">
+        <f>S7</f>
+        <v>0</v>
+      </c>
+      <c r="BI7" s="36">
+        <f>T7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:61" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="32"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="30">
+        <f t="shared" ref="T8:T9" si="5">B8-SUM(AP8:BF8)</f>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2">
+        <f t="shared" ref="Z8:Z9" si="6">($A8+$K$3)*D8</f>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="2">
+        <f t="shared" ref="AA8:AA9" si="7">($A8+$K$3)*E8</f>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="2">
+        <f t="shared" ref="AB8:AB9" si="8">($A8+$K$3)*F8</f>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="2">
+        <f t="shared" ref="AC8:AC9" si="9">($A8+$K$3)*G8</f>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="2">
+        <f t="shared" ref="AD8:AD9" si="10">($A8+$K$3)*H8</f>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="2">
+        <f t="shared" ref="AE8:AE9" si="11">($A8+$K$3)*I8</f>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="2">
+        <f t="shared" ref="AF8:AF9" si="12">($A8+$K$3)*J8</f>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="2">
+        <f t="shared" ref="AG8:AG9" si="13">($A8+$K$3)*K8</f>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="2">
+        <f t="shared" ref="AH8:AH9" si="14">($A8+$K$3)*L8</f>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="2">
+        <f t="shared" ref="AI8:AI9" si="15">($A8+$K$3)*M8</f>
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="2">
+        <f t="shared" ref="AJ8:AJ9" si="16">($A8+$K$3)*N8</f>
+        <v>0</v>
+      </c>
+      <c r="AK8" s="2">
+        <f t="shared" ref="AK8:AK9" si="17">($A8+$K$3)*O8</f>
+        <v>0</v>
+      </c>
+      <c r="AL8" s="2">
+        <f t="shared" ref="AL8:AL9" si="18">($A8+$K$3)*P8</f>
+        <v>0</v>
+      </c>
+      <c r="AM8" s="2">
+        <f t="shared" ref="AM8:AM9" si="19">($A8+$K$3)*Q8</f>
+        <v>0</v>
+      </c>
+      <c r="AN8" s="2">
+        <f t="shared" ref="AN8:AN9" si="20">($A8+$K$3)*R8</f>
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S8" s="41">
-        <f>SUM(S7:S7)</f>
-        <v>0</v>
-      </c>
-      <c r="T8" s="36">
-        <f>SUM(T7:T7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="6">
-        <f t="shared" ref="D9:R9" si="4">D4-D8</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="34">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="42"/>
-      <c r="T9" s="37"/>
-    </row>
-    <row r="10" spans="1:40" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="T10" s="38"/>
-    </row>
-    <row r="11" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="23:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="23:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="23:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="23:40" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
-      <c r="AC21" s="2"/>
-      <c r="AD21" s="2"/>
-      <c r="AE21" s="2"/>
-      <c r="AF21" s="2"/>
-      <c r="AG21" s="2"/>
-      <c r="AH21" s="2"/>
-      <c r="AI21" s="2"/>
-      <c r="AJ21" s="2"/>
-      <c r="AK21" s="2"/>
-      <c r="AL21" s="2"/>
-      <c r="AM21" s="2"/>
-      <c r="AN21" s="2"/>
-    </row>
-    <row r="22" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
-      <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="2"/>
-      <c r="AG22" s="2"/>
-      <c r="AH22" s="2"/>
-      <c r="AI22" s="2"/>
-      <c r="AJ22" s="2"/>
-      <c r="AK22" s="2"/>
-      <c r="AL22" s="2"/>
-      <c r="AM22" s="2"/>
-      <c r="AN22" s="2"/>
-    </row>
-    <row r="23" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AR8" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AS8" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AT8" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AU8" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AV8" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AW8" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AX8" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AY8" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BA8" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BB8" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BC8" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD8" s="2">
+        <f t="shared" ref="BD8:BD9" si="21">Q8*Q$5</f>
+        <v>0</v>
+      </c>
+      <c r="BE8" s="2">
+        <f t="shared" ref="BE8:BE9" si="22">R8*R$5</f>
+        <v>0</v>
+      </c>
+      <c r="BH8" s="36">
+        <f t="shared" ref="BH8:BH9" si="23">S8</f>
+        <v>0</v>
+      </c>
+      <c r="BI8" s="36">
+        <f t="shared" ref="BI8:BI9" si="24">T8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:61" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="32"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AK9" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AL9" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AM9" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AN9" s="2">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AR9" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AS9" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AT9" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AU9" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AV9" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AW9" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AX9" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AY9" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BA9" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BB9" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BC9" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD9" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BE9" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BH9" s="36">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BI9" s="36">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:61" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="6">
+        <f>SUM(Z5:Z10)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <f>SUM(AA6:AA10)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <f>SUM(AB6:AB10)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <f>SUM(AC6:AC10)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <f>SUM(AD6:AD10)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <f>SUM(AE6:AE10)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <f>SUM(AF6:AF10)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <f>SUM(AG6:AG10)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <f>SUM(AH6:AH10)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <f>SUM(AI6:AI10)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <f>SUM(AJ6:AJ10)</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="6">
+        <f>SUM(AK6:AK10)</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="6">
+        <f>SUM(AL6:AL10)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
+        <f>SUM(AM6:AM10)</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="6">
+        <f>SUM(AN6:AN10)</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="43">
+        <f>SUM(BH6:BH10)</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="38">
+        <f>SUM(BI6:BI10)</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="37"/>
+    </row>
+    <row r="11" spans="1:61" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3">
+        <f>D4-D10</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <f>E4-E10</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <f>F4-F10</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <f>G4-G10</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <f>H4-H10</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <f>I4-I10</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <f>J4-J10</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <f>K4-K10</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <f>L4-L10</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <f>M4-M10</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <f>N4-N10</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <f>O4-O10</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
+        <f>P4-P10</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <f>Q4-Q10</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="22">
+        <f>R4-R10</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="44"/>
+      <c r="T11" s="39"/>
+    </row>
+    <row r="12" spans="1:61" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="T12" s="40"/>
+    </row>
+    <row r="13" spans="1:61" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S13" s="37"/>
+    </row>
+    <row r="14" spans="1:61" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:61" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:61" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="23:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="23:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="23:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="23:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="23:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="23:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
@@ -1532,8 +2024,9 @@
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" s="2"/>
-    </row>
-    <row r="24" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO23" s="2"/>
+    </row>
+    <row r="24" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
@@ -1552,8 +2045,9 @@
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" s="2"/>
-    </row>
-    <row r="25" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO24" s="2"/>
+    </row>
+    <row r="25" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
@@ -1572,8 +2066,9 @@
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" s="2"/>
-    </row>
-    <row r="26" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO25" s="2"/>
+    </row>
+    <row r="26" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
@@ -1592,8 +2087,9 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" s="2"/>
-    </row>
-    <row r="27" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO26" s="2"/>
+    </row>
+    <row r="27" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
@@ -1612,8 +2108,9 @@
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" s="2"/>
-    </row>
-    <row r="28" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO27" s="2"/>
+    </row>
+    <row r="28" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
@@ -1632,8 +2129,9 @@
       <c r="AL28" s="2"/>
       <c r="AM28" s="2"/>
       <c r="AN28" s="2"/>
-    </row>
-    <row r="29" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO28" s="2"/>
+    </row>
+    <row r="29" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
@@ -1652,8 +2150,9 @@
       <c r="AL29" s="2"/>
       <c r="AM29" s="2"/>
       <c r="AN29" s="2"/>
-    </row>
-    <row r="30" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO29" s="2"/>
+    </row>
+    <row r="30" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
@@ -1672,8 +2171,9 @@
       <c r="AL30" s="2"/>
       <c r="AM30" s="2"/>
       <c r="AN30" s="2"/>
-    </row>
-    <row r="31" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO30" s="2"/>
+    </row>
+    <row r="31" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
@@ -1692,8 +2192,9 @@
       <c r="AL31" s="2"/>
       <c r="AM31" s="2"/>
       <c r="AN31" s="2"/>
-    </row>
-    <row r="32" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO31" s="2"/>
+    </row>
+    <row r="32" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
@@ -1712,8 +2213,9 @@
       <c r="AL32" s="2"/>
       <c r="AM32" s="2"/>
       <c r="AN32" s="2"/>
-    </row>
-    <row r="33" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO32" s="2"/>
+    </row>
+    <row r="33" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
@@ -1732,8 +2234,9 @@
       <c r="AL33" s="2"/>
       <c r="AM33" s="2"/>
       <c r="AN33" s="2"/>
-    </row>
-    <row r="34" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO33" s="2"/>
+    </row>
+    <row r="34" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
@@ -1752,8 +2255,9 @@
       <c r="AL34" s="2"/>
       <c r="AM34" s="2"/>
       <c r="AN34" s="2"/>
-    </row>
-    <row r="35" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO34" s="2"/>
+    </row>
+    <row r="35" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
@@ -1772,8 +2276,9 @@
       <c r="AL35" s="2"/>
       <c r="AM35" s="2"/>
       <c r="AN35" s="2"/>
-    </row>
-    <row r="36" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO35" s="2"/>
+    </row>
+    <row r="36" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
@@ -1792,8 +2297,9 @@
       <c r="AL36" s="2"/>
       <c r="AM36" s="2"/>
       <c r="AN36" s="2"/>
-    </row>
-    <row r="37" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO36" s="2"/>
+    </row>
+    <row r="37" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
@@ -1812,8 +2318,9 @@
       <c r="AL37" s="2"/>
       <c r="AM37" s="2"/>
       <c r="AN37" s="2"/>
-    </row>
-    <row r="38" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO37" s="2"/>
+    </row>
+    <row r="38" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
@@ -1832,8 +2339,9 @@
       <c r="AL38" s="2"/>
       <c r="AM38" s="2"/>
       <c r="AN38" s="2"/>
-    </row>
-    <row r="39" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO38" s="2"/>
+    </row>
+    <row r="39" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
@@ -1852,8 +2360,9 @@
       <c r="AL39" s="2"/>
       <c r="AM39" s="2"/>
       <c r="AN39" s="2"/>
-    </row>
-    <row r="40" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO39" s="2"/>
+    </row>
+    <row r="40" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
@@ -1872,8 +2381,9 @@
       <c r="AL40" s="2"/>
       <c r="AM40" s="2"/>
       <c r="AN40" s="2"/>
-    </row>
-    <row r="41" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO40" s="2"/>
+    </row>
+    <row r="41" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
@@ -1892,8 +2402,9 @@
       <c r="AL41" s="2"/>
       <c r="AM41" s="2"/>
       <c r="AN41" s="2"/>
-    </row>
-    <row r="42" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO41" s="2"/>
+    </row>
+    <row r="42" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
@@ -1912,8 +2423,9 @@
       <c r="AL42" s="2"/>
       <c r="AM42" s="2"/>
       <c r="AN42" s="2"/>
-    </row>
-    <row r="43" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO42" s="2"/>
+    </row>
+    <row r="43" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
@@ -1932,8 +2444,9 @@
       <c r="AL43" s="2"/>
       <c r="AM43" s="2"/>
       <c r="AN43" s="2"/>
-    </row>
-    <row r="44" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO43" s="2"/>
+    </row>
+    <row r="44" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
@@ -1952,8 +2465,9 @@
       <c r="AL44" s="2"/>
       <c r="AM44" s="2"/>
       <c r="AN44" s="2"/>
-    </row>
-    <row r="45" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO44" s="2"/>
+    </row>
+    <row r="45" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
@@ -1972,8 +2486,9 @@
       <c r="AL45" s="2"/>
       <c r="AM45" s="2"/>
       <c r="AN45" s="2"/>
-    </row>
-    <row r="46" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO45" s="2"/>
+    </row>
+    <row r="46" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
@@ -1992,8 +2507,9 @@
       <c r="AL46" s="2"/>
       <c r="AM46" s="2"/>
       <c r="AN46" s="2"/>
-    </row>
-    <row r="47" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO46" s="2"/>
+    </row>
+    <row r="47" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W47" s="2"/>
       <c r="X47" s="2"/>
       <c r="Y47" s="2"/>
@@ -2012,8 +2528,9 @@
       <c r="AL47" s="2"/>
       <c r="AM47" s="2"/>
       <c r="AN47" s="2"/>
-    </row>
-    <row r="48" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO47" s="2"/>
+    </row>
+    <row r="48" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
@@ -2032,8 +2549,9 @@
       <c r="AL48" s="2"/>
       <c r="AM48" s="2"/>
       <c r="AN48" s="2"/>
-    </row>
-    <row r="49" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO48" s="2"/>
+    </row>
+    <row r="49" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
@@ -2052,8 +2570,9 @@
       <c r="AL49" s="2"/>
       <c r="AM49" s="2"/>
       <c r="AN49" s="2"/>
-    </row>
-    <row r="50" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO49" s="2"/>
+    </row>
+    <row r="50" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W50" s="2"/>
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
@@ -2072,8 +2591,9 @@
       <c r="AL50" s="2"/>
       <c r="AM50" s="2"/>
       <c r="AN50" s="2"/>
-    </row>
-    <row r="51" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO50" s="2"/>
+    </row>
+    <row r="51" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W51" s="2"/>
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
@@ -2092,8 +2612,9 @@
       <c r="AL51" s="2"/>
       <c r="AM51" s="2"/>
       <c r="AN51" s="2"/>
-    </row>
-    <row r="52" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO51" s="2"/>
+    </row>
+    <row r="52" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W52" s="2"/>
       <c r="X52" s="2"/>
       <c r="Y52" s="2"/>
@@ -2112,8 +2633,9 @@
       <c r="AL52" s="2"/>
       <c r="AM52" s="2"/>
       <c r="AN52" s="2"/>
-    </row>
-    <row r="53" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO52" s="2"/>
+    </row>
+    <row r="53" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W53" s="2"/>
       <c r="X53" s="2"/>
       <c r="Y53" s="2"/>
@@ -2132,8 +2654,9 @@
       <c r="AL53" s="2"/>
       <c r="AM53" s="2"/>
       <c r="AN53" s="2"/>
-    </row>
-    <row r="54" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO53" s="2"/>
+    </row>
+    <row r="54" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W54" s="2"/>
       <c r="X54" s="2"/>
       <c r="Y54" s="2"/>
@@ -2152,8 +2675,9 @@
       <c r="AL54" s="2"/>
       <c r="AM54" s="2"/>
       <c r="AN54" s="2"/>
-    </row>
-    <row r="55" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO54" s="2"/>
+    </row>
+    <row r="55" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W55" s="2"/>
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
@@ -2172,8 +2696,9 @@
       <c r="AL55" s="2"/>
       <c r="AM55" s="2"/>
       <c r="AN55" s="2"/>
-    </row>
-    <row r="56" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO55" s="2"/>
+    </row>
+    <row r="56" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W56" s="2"/>
       <c r="X56" s="2"/>
       <c r="Y56" s="2"/>
@@ -2192,8 +2717,9 @@
       <c r="AL56" s="2"/>
       <c r="AM56" s="2"/>
       <c r="AN56" s="2"/>
-    </row>
-    <row r="57" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO56" s="2"/>
+    </row>
+    <row r="57" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W57" s="2"/>
       <c r="X57" s="2"/>
       <c r="Y57" s="2"/>
@@ -2212,8 +2738,9 @@
       <c r="AL57" s="2"/>
       <c r="AM57" s="2"/>
       <c r="AN57" s="2"/>
-    </row>
-    <row r="58" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO57" s="2"/>
+    </row>
+    <row r="58" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W58" s="2"/>
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
@@ -2232,8 +2759,9 @@
       <c r="AL58" s="2"/>
       <c r="AM58" s="2"/>
       <c r="AN58" s="2"/>
-    </row>
-    <row r="59" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO58" s="2"/>
+    </row>
+    <row r="59" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W59" s="2"/>
       <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
@@ -2252,8 +2780,9 @@
       <c r="AL59" s="2"/>
       <c r="AM59" s="2"/>
       <c r="AN59" s="2"/>
-    </row>
-    <row r="60" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO59" s="2"/>
+    </row>
+    <row r="60" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W60" s="2"/>
       <c r="X60" s="2"/>
       <c r="Y60" s="2"/>
@@ -2272,8 +2801,9 @@
       <c r="AL60" s="2"/>
       <c r="AM60" s="2"/>
       <c r="AN60" s="2"/>
-    </row>
-    <row r="61" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO60" s="2"/>
+    </row>
+    <row r="61" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W61" s="2"/>
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
@@ -2292,8 +2822,9 @@
       <c r="AL61" s="2"/>
       <c r="AM61" s="2"/>
       <c r="AN61" s="2"/>
-    </row>
-    <row r="62" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO61" s="2"/>
+    </row>
+    <row r="62" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W62" s="2"/>
       <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
@@ -2312,8 +2843,9 @@
       <c r="AL62" s="2"/>
       <c r="AM62" s="2"/>
       <c r="AN62" s="2"/>
-    </row>
-    <row r="63" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO62" s="2"/>
+    </row>
+    <row r="63" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W63" s="2"/>
       <c r="X63" s="2"/>
       <c r="Y63" s="2"/>
@@ -2332,8 +2864,9 @@
       <c r="AL63" s="2"/>
       <c r="AM63" s="2"/>
       <c r="AN63" s="2"/>
-    </row>
-    <row r="64" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO63" s="2"/>
+    </row>
+    <row r="64" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W64" s="2"/>
       <c r="X64" s="2"/>
       <c r="Y64" s="2"/>
@@ -2352,8 +2885,9 @@
       <c r="AL64" s="2"/>
       <c r="AM64" s="2"/>
       <c r="AN64" s="2"/>
-    </row>
-    <row r="65" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO64" s="2"/>
+    </row>
+    <row r="65" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W65" s="2"/>
       <c r="X65" s="2"/>
       <c r="Y65" s="2"/>
@@ -2372,8 +2906,9 @@
       <c r="AL65" s="2"/>
       <c r="AM65" s="2"/>
       <c r="AN65" s="2"/>
-    </row>
-    <row r="66" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO65" s="2"/>
+    </row>
+    <row r="66" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W66" s="2"/>
       <c r="X66" s="2"/>
       <c r="Y66" s="2"/>
@@ -2392,8 +2927,9 @@
       <c r="AL66" s="2"/>
       <c r="AM66" s="2"/>
       <c r="AN66" s="2"/>
-    </row>
-    <row r="67" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO66" s="2"/>
+    </row>
+    <row r="67" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W67" s="2"/>
       <c r="X67" s="2"/>
       <c r="Y67" s="2"/>
@@ -2412,8 +2948,9 @@
       <c r="AL67" s="2"/>
       <c r="AM67" s="2"/>
       <c r="AN67" s="2"/>
-    </row>
-    <row r="68" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO67" s="2"/>
+    </row>
+    <row r="68" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W68" s="2"/>
       <c r="X68" s="2"/>
       <c r="Y68" s="2"/>
@@ -2432,8 +2969,9 @@
       <c r="AL68" s="2"/>
       <c r="AM68" s="2"/>
       <c r="AN68" s="2"/>
-    </row>
-    <row r="69" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO68" s="2"/>
+    </row>
+    <row r="69" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W69" s="2"/>
       <c r="X69" s="2"/>
       <c r="Y69" s="2"/>
@@ -2452,8 +2990,9 @@
       <c r="AL69" s="2"/>
       <c r="AM69" s="2"/>
       <c r="AN69" s="2"/>
-    </row>
-    <row r="70" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO69" s="2"/>
+    </row>
+    <row r="70" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W70" s="2"/>
       <c r="X70" s="2"/>
       <c r="Y70" s="2"/>
@@ -2472,8 +3011,9 @@
       <c r="AL70" s="2"/>
       <c r="AM70" s="2"/>
       <c r="AN70" s="2"/>
-    </row>
-    <row r="71" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO70" s="2"/>
+    </row>
+    <row r="71" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W71" s="2"/>
       <c r="X71" s="2"/>
       <c r="Y71" s="2"/>
@@ -2492,8 +3032,9 @@
       <c r="AL71" s="2"/>
       <c r="AM71" s="2"/>
       <c r="AN71" s="2"/>
-    </row>
-    <row r="72" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO71" s="2"/>
+    </row>
+    <row r="72" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W72" s="2"/>
       <c r="X72" s="2"/>
       <c r="Y72" s="2"/>
@@ -2512,8 +3053,9 @@
       <c r="AL72" s="2"/>
       <c r="AM72" s="2"/>
       <c r="AN72" s="2"/>
-    </row>
-    <row r="73" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO72" s="2"/>
+    </row>
+    <row r="73" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W73" s="2"/>
       <c r="X73" s="2"/>
       <c r="Y73" s="2"/>
@@ -2532,8 +3074,9 @@
       <c r="AL73" s="2"/>
       <c r="AM73" s="2"/>
       <c r="AN73" s="2"/>
-    </row>
-    <row r="74" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO73" s="2"/>
+    </row>
+    <row r="74" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W74" s="2"/>
       <c r="X74" s="2"/>
       <c r="Y74" s="2"/>
@@ -2552,8 +3095,9 @@
       <c r="AL74" s="2"/>
       <c r="AM74" s="2"/>
       <c r="AN74" s="2"/>
-    </row>
-    <row r="75" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO74" s="2"/>
+    </row>
+    <row r="75" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W75" s="2"/>
       <c r="X75" s="2"/>
       <c r="Y75" s="2"/>
@@ -2572,8 +3116,9 @@
       <c r="AL75" s="2"/>
       <c r="AM75" s="2"/>
       <c r="AN75" s="2"/>
-    </row>
-    <row r="76" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO75" s="2"/>
+    </row>
+    <row r="76" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W76" s="2"/>
       <c r="X76" s="2"/>
       <c r="Y76" s="2"/>
@@ -2592,8 +3137,9 @@
       <c r="AL76" s="2"/>
       <c r="AM76" s="2"/>
       <c r="AN76" s="2"/>
-    </row>
-    <row r="77" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO76" s="2"/>
+    </row>
+    <row r="77" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W77" s="2"/>
       <c r="X77" s="2"/>
       <c r="Y77" s="2"/>
@@ -2612,8 +3158,9 @@
       <c r="AL77" s="2"/>
       <c r="AM77" s="2"/>
       <c r="AN77" s="2"/>
-    </row>
-    <row r="78" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO77" s="2"/>
+    </row>
+    <row r="78" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W78" s="2"/>
       <c r="X78" s="2"/>
       <c r="Y78" s="2"/>
@@ -2632,8 +3179,9 @@
       <c r="AL78" s="2"/>
       <c r="AM78" s="2"/>
       <c r="AN78" s="2"/>
-    </row>
-    <row r="79" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO78" s="2"/>
+    </row>
+    <row r="79" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W79" s="2"/>
       <c r="X79" s="2"/>
       <c r="Y79" s="2"/>
@@ -2652,8 +3200,9 @@
       <c r="AL79" s="2"/>
       <c r="AM79" s="2"/>
       <c r="AN79" s="2"/>
-    </row>
-    <row r="80" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO79" s="2"/>
+    </row>
+    <row r="80" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W80" s="2"/>
       <c r="X80" s="2"/>
       <c r="Y80" s="2"/>
@@ -2672,8 +3221,9 @@
       <c r="AL80" s="2"/>
       <c r="AM80" s="2"/>
       <c r="AN80" s="2"/>
-    </row>
-    <row r="81" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO80" s="2"/>
+    </row>
+    <row r="81" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W81" s="2"/>
       <c r="X81" s="2"/>
       <c r="Y81" s="2"/>
@@ -2692,8 +3242,9 @@
       <c r="AL81" s="2"/>
       <c r="AM81" s="2"/>
       <c r="AN81" s="2"/>
-    </row>
-    <row r="82" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO81" s="2"/>
+    </row>
+    <row r="82" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W82" s="2"/>
       <c r="X82" s="2"/>
       <c r="Y82" s="2"/>
@@ -2712,8 +3263,9 @@
       <c r="AL82" s="2"/>
       <c r="AM82" s="2"/>
       <c r="AN82" s="2"/>
-    </row>
-    <row r="83" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO82" s="2"/>
+    </row>
+    <row r="83" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W83" s="2"/>
       <c r="X83" s="2"/>
       <c r="Y83" s="2"/>
@@ -2732,8 +3284,9 @@
       <c r="AL83" s="2"/>
       <c r="AM83" s="2"/>
       <c r="AN83" s="2"/>
-    </row>
-    <row r="84" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO83" s="2"/>
+    </row>
+    <row r="84" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W84" s="2"/>
       <c r="X84" s="2"/>
       <c r="Y84" s="2"/>
@@ -2752,8 +3305,9 @@
       <c r="AL84" s="2"/>
       <c r="AM84" s="2"/>
       <c r="AN84" s="2"/>
-    </row>
-    <row r="85" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO84" s="2"/>
+    </row>
+    <row r="85" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W85" s="2"/>
       <c r="X85" s="2"/>
       <c r="Y85" s="2"/>
@@ -2772,8 +3326,9 @@
       <c r="AL85" s="2"/>
       <c r="AM85" s="2"/>
       <c r="AN85" s="2"/>
-    </row>
-    <row r="86" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO85" s="2"/>
+    </row>
+    <row r="86" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W86" s="2"/>
       <c r="X86" s="2"/>
       <c r="Y86" s="2"/>
@@ -2792,8 +3347,9 @@
       <c r="AL86" s="2"/>
       <c r="AM86" s="2"/>
       <c r="AN86" s="2"/>
-    </row>
-    <row r="87" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO86" s="2"/>
+    </row>
+    <row r="87" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W87" s="2"/>
       <c r="X87" s="2"/>
       <c r="Y87" s="2"/>
@@ -2812,8 +3368,9 @@
       <c r="AL87" s="2"/>
       <c r="AM87" s="2"/>
       <c r="AN87" s="2"/>
-    </row>
-    <row r="88" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO87" s="2"/>
+    </row>
+    <row r="88" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W88" s="2"/>
       <c r="X88" s="2"/>
       <c r="Y88" s="2"/>
@@ -2832,8 +3389,9 @@
       <c r="AL88" s="2"/>
       <c r="AM88" s="2"/>
       <c r="AN88" s="2"/>
-    </row>
-    <row r="89" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO88" s="2"/>
+    </row>
+    <row r="89" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W89" s="2"/>
       <c r="X89" s="2"/>
       <c r="Y89" s="2"/>
@@ -2852,8 +3410,9 @@
       <c r="AL89" s="2"/>
       <c r="AM89" s="2"/>
       <c r="AN89" s="2"/>
-    </row>
-    <row r="90" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO89" s="2"/>
+    </row>
+    <row r="90" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W90" s="2"/>
       <c r="X90" s="2"/>
       <c r="Y90" s="2"/>
@@ -2872,8 +3431,9 @@
       <c r="AL90" s="2"/>
       <c r="AM90" s="2"/>
       <c r="AN90" s="2"/>
-    </row>
-    <row r="91" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO90" s="2"/>
+    </row>
+    <row r="91" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W91" s="2"/>
       <c r="X91" s="2"/>
       <c r="Y91" s="2"/>
@@ -2892,8 +3452,9 @@
       <c r="AL91" s="2"/>
       <c r="AM91" s="2"/>
       <c r="AN91" s="2"/>
-    </row>
-    <row r="92" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO91" s="2"/>
+    </row>
+    <row r="92" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W92" s="2"/>
       <c r="X92" s="2"/>
       <c r="Y92" s="2"/>
@@ -2912,8 +3473,9 @@
       <c r="AL92" s="2"/>
       <c r="AM92" s="2"/>
       <c r="AN92" s="2"/>
-    </row>
-    <row r="93" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO92" s="2"/>
+    </row>
+    <row r="93" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W93" s="2"/>
       <c r="X93" s="2"/>
       <c r="Y93" s="2"/>
@@ -2932,8 +3494,9 @@
       <c r="AL93" s="2"/>
       <c r="AM93" s="2"/>
       <c r="AN93" s="2"/>
-    </row>
-    <row r="94" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO93" s="2"/>
+    </row>
+    <row r="94" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W94" s="2"/>
       <c r="X94" s="2"/>
       <c r="Y94" s="2"/>
@@ -2952,8 +3515,9 @@
       <c r="AL94" s="2"/>
       <c r="AM94" s="2"/>
       <c r="AN94" s="2"/>
-    </row>
-    <row r="95" spans="23:40" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO94" s="2"/>
+    </row>
+    <row r="95" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W95" s="2"/>
       <c r="X95" s="2"/>
       <c r="Y95" s="2"/>
@@ -2972,8 +3536,9 @@
       <c r="AL95" s="2"/>
       <c r="AM95" s="2"/>
       <c r="AN95" s="2"/>
-    </row>
-    <row r="96" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO95" s="2"/>
+    </row>
+    <row r="96" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W96" s="2"/>
       <c r="X96" s="2"/>
       <c r="Y96" s="2"/>
@@ -2992,8 +3557,9 @@
       <c r="AL96" s="2"/>
       <c r="AM96" s="2"/>
       <c r="AN96" s="2"/>
-    </row>
-    <row r="97" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO96" s="2"/>
+    </row>
+    <row r="97" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W97" s="2"/>
       <c r="X97" s="2"/>
       <c r="Y97" s="2"/>
@@ -3012,8 +3578,9 @@
       <c r="AL97" s="2"/>
       <c r="AM97" s="2"/>
       <c r="AN97" s="2"/>
-    </row>
-    <row r="98" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO97" s="2"/>
+    </row>
+    <row r="98" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W98" s="2"/>
       <c r="X98" s="2"/>
       <c r="Y98" s="2"/>
@@ -3032,8 +3599,9 @@
       <c r="AL98" s="2"/>
       <c r="AM98" s="2"/>
       <c r="AN98" s="2"/>
-    </row>
-    <row r="99" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO98" s="2"/>
+    </row>
+    <row r="99" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W99" s="2"/>
       <c r="X99" s="2"/>
       <c r="Y99" s="2"/>
@@ -3052,8 +3620,9 @@
       <c r="AL99" s="2"/>
       <c r="AM99" s="2"/>
       <c r="AN99" s="2"/>
-    </row>
-    <row r="100" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO99" s="2"/>
+    </row>
+    <row r="100" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W100" s="2"/>
       <c r="X100" s="2"/>
       <c r="Y100" s="2"/>
@@ -3072,8 +3641,9 @@
       <c r="AL100" s="2"/>
       <c r="AM100" s="2"/>
       <c r="AN100" s="2"/>
-    </row>
-    <row r="101" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO100" s="2"/>
+    </row>
+    <row r="101" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W101" s="2"/>
       <c r="X101" s="2"/>
       <c r="Y101" s="2"/>
@@ -3092,8 +3662,9 @@
       <c r="AL101" s="2"/>
       <c r="AM101" s="2"/>
       <c r="AN101" s="2"/>
-    </row>
-    <row r="102" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO101" s="2"/>
+    </row>
+    <row r="102" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W102" s="2"/>
       <c r="X102" s="2"/>
       <c r="Y102" s="2"/>
@@ -3112,8 +3683,9 @@
       <c r="AL102" s="2"/>
       <c r="AM102" s="2"/>
       <c r="AN102" s="2"/>
-    </row>
-    <row r="103" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO102" s="2"/>
+    </row>
+    <row r="103" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W103" s="2"/>
       <c r="X103" s="2"/>
       <c r="Y103" s="2"/>
@@ -3132,8 +3704,9 @@
       <c r="AL103" s="2"/>
       <c r="AM103" s="2"/>
       <c r="AN103" s="2"/>
-    </row>
-    <row r="104" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO103" s="2"/>
+    </row>
+    <row r="104" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W104" s="2"/>
       <c r="X104" s="2"/>
       <c r="Y104" s="2"/>
@@ -3152,8 +3725,9 @@
       <c r="AL104" s="2"/>
       <c r="AM104" s="2"/>
       <c r="AN104" s="2"/>
-    </row>
-    <row r="105" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO104" s="2"/>
+    </row>
+    <row r="105" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W105" s="2"/>
       <c r="X105" s="2"/>
       <c r="Y105" s="2"/>
@@ -3172,8 +3746,9 @@
       <c r="AL105" s="2"/>
       <c r="AM105" s="2"/>
       <c r="AN105" s="2"/>
-    </row>
-    <row r="106" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO105" s="2"/>
+    </row>
+    <row r="106" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W106" s="2"/>
       <c r="X106" s="2"/>
       <c r="Y106" s="2"/>
@@ -3192,8 +3767,9 @@
       <c r="AL106" s="2"/>
       <c r="AM106" s="2"/>
       <c r="AN106" s="2"/>
-    </row>
-    <row r="107" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO106" s="2"/>
+    </row>
+    <row r="107" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W107" s="2"/>
       <c r="X107" s="2"/>
       <c r="Y107" s="2"/>
@@ -3212,8 +3788,9 @@
       <c r="AL107" s="2"/>
       <c r="AM107" s="2"/>
       <c r="AN107" s="2"/>
-    </row>
-    <row r="108" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO107" s="2"/>
+    </row>
+    <row r="108" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W108" s="2"/>
       <c r="X108" s="2"/>
       <c r="Y108" s="2"/>
@@ -3232,8 +3809,9 @@
       <c r="AL108" s="2"/>
       <c r="AM108" s="2"/>
       <c r="AN108" s="2"/>
-    </row>
-    <row r="109" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO108" s="2"/>
+    </row>
+    <row r="109" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W109" s="2"/>
       <c r="X109" s="2"/>
       <c r="Y109" s="2"/>
@@ -3252,8 +3830,9 @@
       <c r="AL109" s="2"/>
       <c r="AM109" s="2"/>
       <c r="AN109" s="2"/>
-    </row>
-    <row r="110" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO109" s="2"/>
+    </row>
+    <row r="110" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W110" s="2"/>
       <c r="X110" s="2"/>
       <c r="Y110" s="2"/>
@@ -3272,8 +3851,9 @@
       <c r="AL110" s="2"/>
       <c r="AM110" s="2"/>
       <c r="AN110" s="2"/>
-    </row>
-    <row r="111" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO110" s="2"/>
+    </row>
+    <row r="111" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W111" s="2"/>
       <c r="X111" s="2"/>
       <c r="Y111" s="2"/>
@@ -3292,8 +3872,9 @@
       <c r="AL111" s="2"/>
       <c r="AM111" s="2"/>
       <c r="AN111" s="2"/>
-    </row>
-    <row r="112" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO111" s="2"/>
+    </row>
+    <row r="112" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W112" s="2"/>
       <c r="X112" s="2"/>
       <c r="Y112" s="2"/>
@@ -3312,8 +3893,9 @@
       <c r="AL112" s="2"/>
       <c r="AM112" s="2"/>
       <c r="AN112" s="2"/>
-    </row>
-    <row r="113" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO112" s="2"/>
+    </row>
+    <row r="113" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W113" s="2"/>
       <c r="X113" s="2"/>
       <c r="Y113" s="2"/>
@@ -3332,8 +3914,9 @@
       <c r="AL113" s="2"/>
       <c r="AM113" s="2"/>
       <c r="AN113" s="2"/>
-    </row>
-    <row r="114" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO113" s="2"/>
+    </row>
+    <row r="114" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W114" s="2"/>
       <c r="X114" s="2"/>
       <c r="Y114" s="2"/>
@@ -3352,8 +3935,9 @@
       <c r="AL114" s="2"/>
       <c r="AM114" s="2"/>
       <c r="AN114" s="2"/>
-    </row>
-    <row r="115" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO114" s="2"/>
+    </row>
+    <row r="115" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W115" s="2"/>
       <c r="X115" s="2"/>
       <c r="Y115" s="2"/>
@@ -3372,8 +3956,9 @@
       <c r="AL115" s="2"/>
       <c r="AM115" s="2"/>
       <c r="AN115" s="2"/>
-    </row>
-    <row r="116" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO115" s="2"/>
+    </row>
+    <row r="116" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W116" s="2"/>
       <c r="X116" s="2"/>
       <c r="Y116" s="2"/>
@@ -3392,8 +3977,9 @@
       <c r="AL116" s="2"/>
       <c r="AM116" s="2"/>
       <c r="AN116" s="2"/>
-    </row>
-    <row r="117" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO116" s="2"/>
+    </row>
+    <row r="117" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W117" s="2"/>
       <c r="X117" s="2"/>
       <c r="Y117" s="2"/>
@@ -3412,8 +3998,9 @@
       <c r="AL117" s="2"/>
       <c r="AM117" s="2"/>
       <c r="AN117" s="2"/>
-    </row>
-    <row r="118" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO117" s="2"/>
+    </row>
+    <row r="118" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W118" s="2"/>
       <c r="X118" s="2"/>
       <c r="Y118" s="2"/>
@@ -3432,8 +4019,9 @@
       <c r="AL118" s="2"/>
       <c r="AM118" s="2"/>
       <c r="AN118" s="2"/>
-    </row>
-    <row r="119" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO118" s="2"/>
+    </row>
+    <row r="119" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W119" s="2"/>
       <c r="X119" s="2"/>
       <c r="Y119" s="2"/>
@@ -3452,8 +4040,9 @@
       <c r="AL119" s="2"/>
       <c r="AM119" s="2"/>
       <c r="AN119" s="2"/>
-    </row>
-    <row r="120" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO119" s="2"/>
+    </row>
+    <row r="120" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W120" s="2"/>
       <c r="X120" s="2"/>
       <c r="Y120" s="2"/>
@@ -3472,8 +4061,9 @@
       <c r="AL120" s="2"/>
       <c r="AM120" s="2"/>
       <c r="AN120" s="2"/>
-    </row>
-    <row r="121" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO120" s="2"/>
+    </row>
+    <row r="121" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W121" s="2"/>
       <c r="X121" s="2"/>
       <c r="Y121" s="2"/>
@@ -3492,8 +4082,9 @@
       <c r="AL121" s="2"/>
       <c r="AM121" s="2"/>
       <c r="AN121" s="2"/>
-    </row>
-    <row r="122" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO121" s="2"/>
+    </row>
+    <row r="122" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W122" s="2"/>
       <c r="X122" s="2"/>
       <c r="Y122" s="2"/>
@@ -3512,8 +4103,9 @@
       <c r="AL122" s="2"/>
       <c r="AM122" s="2"/>
       <c r="AN122" s="2"/>
-    </row>
-    <row r="123" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO122" s="2"/>
+    </row>
+    <row r="123" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W123" s="2"/>
       <c r="X123" s="2"/>
       <c r="Y123" s="2"/>
@@ -3532,8 +4124,9 @@
       <c r="AL123" s="2"/>
       <c r="AM123" s="2"/>
       <c r="AN123" s="2"/>
-    </row>
-    <row r="124" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO123" s="2"/>
+    </row>
+    <row r="124" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W124" s="2"/>
       <c r="X124" s="2"/>
       <c r="Y124" s="2"/>
@@ -3552,8 +4145,9 @@
       <c r="AL124" s="2"/>
       <c r="AM124" s="2"/>
       <c r="AN124" s="2"/>
-    </row>
-    <row r="125" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO124" s="2"/>
+    </row>
+    <row r="125" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W125" s="2"/>
       <c r="X125" s="2"/>
       <c r="Y125" s="2"/>
@@ -3572,8 +4166,9 @@
       <c r="AL125" s="2"/>
       <c r="AM125" s="2"/>
       <c r="AN125" s="2"/>
-    </row>
-    <row r="126" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO125" s="2"/>
+    </row>
+    <row r="126" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W126" s="2"/>
       <c r="X126" s="2"/>
       <c r="Y126" s="2"/>
@@ -3592,8 +4187,9 @@
       <c r="AL126" s="2"/>
       <c r="AM126" s="2"/>
       <c r="AN126" s="2"/>
-    </row>
-    <row r="127" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO126" s="2"/>
+    </row>
+    <row r="127" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W127" s="2"/>
       <c r="X127" s="2"/>
       <c r="Y127" s="2"/>
@@ -3612,8 +4208,9 @@
       <c r="AL127" s="2"/>
       <c r="AM127" s="2"/>
       <c r="AN127" s="2"/>
-    </row>
-    <row r="128" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO127" s="2"/>
+    </row>
+    <row r="128" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W128" s="2"/>
       <c r="X128" s="2"/>
       <c r="Y128" s="2"/>
@@ -3632,8 +4229,9 @@
       <c r="AL128" s="2"/>
       <c r="AM128" s="2"/>
       <c r="AN128" s="2"/>
-    </row>
-    <row r="129" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO128" s="2"/>
+    </row>
+    <row r="129" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W129" s="2"/>
       <c r="X129" s="2"/>
       <c r="Y129" s="2"/>
@@ -3652,8 +4250,9 @@
       <c r="AL129" s="2"/>
       <c r="AM129" s="2"/>
       <c r="AN129" s="2"/>
-    </row>
-    <row r="130" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO129" s="2"/>
+    </row>
+    <row r="130" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W130" s="2"/>
       <c r="X130" s="2"/>
       <c r="Y130" s="2"/>
@@ -3672,8 +4271,9 @@
       <c r="AL130" s="2"/>
       <c r="AM130" s="2"/>
       <c r="AN130" s="2"/>
-    </row>
-    <row r="131" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO130" s="2"/>
+    </row>
+    <row r="131" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W131" s="2"/>
       <c r="X131" s="2"/>
       <c r="Y131" s="2"/>
@@ -3692,8 +4292,9 @@
       <c r="AL131" s="2"/>
       <c r="AM131" s="2"/>
       <c r="AN131" s="2"/>
-    </row>
-    <row r="132" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO131" s="2"/>
+    </row>
+    <row r="132" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W132" s="2"/>
       <c r="X132" s="2"/>
       <c r="Y132" s="2"/>
@@ -3712,8 +4313,9 @@
       <c r="AL132" s="2"/>
       <c r="AM132" s="2"/>
       <c r="AN132" s="2"/>
-    </row>
-    <row r="133" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO132" s="2"/>
+    </row>
+    <row r="133" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W133" s="2"/>
       <c r="X133" s="2"/>
       <c r="Y133" s="2"/>
@@ -3732,8 +4334,9 @@
       <c r="AL133" s="2"/>
       <c r="AM133" s="2"/>
       <c r="AN133" s="2"/>
-    </row>
-    <row r="134" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO133" s="2"/>
+    </row>
+    <row r="134" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W134" s="2"/>
       <c r="X134" s="2"/>
       <c r="Y134" s="2"/>
@@ -3752,8 +4355,9 @@
       <c r="AL134" s="2"/>
       <c r="AM134" s="2"/>
       <c r="AN134" s="2"/>
-    </row>
-    <row r="135" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO134" s="2"/>
+    </row>
+    <row r="135" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W135" s="2"/>
       <c r="X135" s="2"/>
       <c r="Y135" s="2"/>
@@ -3772,8 +4376,9 @@
       <c r="AL135" s="2"/>
       <c r="AM135" s="2"/>
       <c r="AN135" s="2"/>
-    </row>
-    <row r="136" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO135" s="2"/>
+    </row>
+    <row r="136" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W136" s="2"/>
       <c r="X136" s="2"/>
       <c r="Y136" s="2"/>
@@ -3792,8 +4397,9 @@
       <c r="AL136" s="2"/>
       <c r="AM136" s="2"/>
       <c r="AN136" s="2"/>
-    </row>
-    <row r="137" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO136" s="2"/>
+    </row>
+    <row r="137" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W137" s="2"/>
       <c r="X137" s="2"/>
       <c r="Y137" s="2"/>
@@ -3812,8 +4418,9 @@
       <c r="AL137" s="2"/>
       <c r="AM137" s="2"/>
       <c r="AN137" s="2"/>
-    </row>
-    <row r="138" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO137" s="2"/>
+    </row>
+    <row r="138" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W138" s="2"/>
       <c r="X138" s="2"/>
       <c r="Y138" s="2"/>
@@ -3832,8 +4439,9 @@
       <c r="AL138" s="2"/>
       <c r="AM138" s="2"/>
       <c r="AN138" s="2"/>
-    </row>
-    <row r="139" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO138" s="2"/>
+    </row>
+    <row r="139" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W139" s="2"/>
       <c r="X139" s="2"/>
       <c r="Y139" s="2"/>
@@ -3852,8 +4460,9 @@
       <c r="AL139" s="2"/>
       <c r="AM139" s="2"/>
       <c r="AN139" s="2"/>
-    </row>
-    <row r="140" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO139" s="2"/>
+    </row>
+    <row r="140" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W140" s="2"/>
       <c r="X140" s="2"/>
       <c r="Y140" s="2"/>
@@ -3872,8 +4481,9 @@
       <c r="AL140" s="2"/>
       <c r="AM140" s="2"/>
       <c r="AN140" s="2"/>
-    </row>
-    <row r="141" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO140" s="2"/>
+    </row>
+    <row r="141" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W141" s="2"/>
       <c r="X141" s="2"/>
       <c r="Y141" s="2"/>
@@ -3892,8 +4502,9 @@
       <c r="AL141" s="2"/>
       <c r="AM141" s="2"/>
       <c r="AN141" s="2"/>
-    </row>
-    <row r="142" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO141" s="2"/>
+    </row>
+    <row r="142" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W142" s="2"/>
       <c r="X142" s="2"/>
       <c r="Y142" s="2"/>
@@ -3912,8 +4523,9 @@
       <c r="AL142" s="2"/>
       <c r="AM142" s="2"/>
       <c r="AN142" s="2"/>
-    </row>
-    <row r="143" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO142" s="2"/>
+    </row>
+    <row r="143" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W143" s="2"/>
       <c r="X143" s="2"/>
       <c r="Y143" s="2"/>
@@ -3932,8 +4544,9 @@
       <c r="AL143" s="2"/>
       <c r="AM143" s="2"/>
       <c r="AN143" s="2"/>
-    </row>
-    <row r="144" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO143" s="2"/>
+    </row>
+    <row r="144" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W144" s="2"/>
       <c r="X144" s="2"/>
       <c r="Y144" s="2"/>
@@ -3952,8 +4565,9 @@
       <c r="AL144" s="2"/>
       <c r="AM144" s="2"/>
       <c r="AN144" s="2"/>
-    </row>
-    <row r="145" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO144" s="2"/>
+    </row>
+    <row r="145" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W145" s="2"/>
       <c r="X145" s="2"/>
       <c r="Y145" s="2"/>
@@ -3972,8 +4586,9 @@
       <c r="AL145" s="2"/>
       <c r="AM145" s="2"/>
       <c r="AN145" s="2"/>
-    </row>
-    <row r="146" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO145" s="2"/>
+    </row>
+    <row r="146" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W146" s="2"/>
       <c r="X146" s="2"/>
       <c r="Y146" s="2"/>
@@ -3992,8 +4607,9 @@
       <c r="AL146" s="2"/>
       <c r="AM146" s="2"/>
       <c r="AN146" s="2"/>
-    </row>
-    <row r="147" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO146" s="2"/>
+    </row>
+    <row r="147" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W147" s="2"/>
       <c r="X147" s="2"/>
       <c r="Y147" s="2"/>
@@ -4012,8 +4628,9 @@
       <c r="AL147" s="2"/>
       <c r="AM147" s="2"/>
       <c r="AN147" s="2"/>
-    </row>
-    <row r="148" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO147" s="2"/>
+    </row>
+    <row r="148" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W148" s="2"/>
       <c r="X148" s="2"/>
       <c r="Y148" s="2"/>
@@ -4032,8 +4649,9 @@
       <c r="AL148" s="2"/>
       <c r="AM148" s="2"/>
       <c r="AN148" s="2"/>
-    </row>
-    <row r="149" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO148" s="2"/>
+    </row>
+    <row r="149" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W149" s="2"/>
       <c r="X149" s="2"/>
       <c r="Y149" s="2"/>
@@ -4052,8 +4670,9 @@
       <c r="AL149" s="2"/>
       <c r="AM149" s="2"/>
       <c r="AN149" s="2"/>
-    </row>
-    <row r="150" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO149" s="2"/>
+    </row>
+    <row r="150" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W150" s="2"/>
       <c r="X150" s="2"/>
       <c r="Y150" s="2"/>
@@ -4072,8 +4691,9 @@
       <c r="AL150" s="2"/>
       <c r="AM150" s="2"/>
       <c r="AN150" s="2"/>
-    </row>
-    <row r="151" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO150" s="2"/>
+    </row>
+    <row r="151" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W151" s="2"/>
       <c r="X151" s="2"/>
       <c r="Y151" s="2"/>
@@ -4092,8 +4712,9 @@
       <c r="AL151" s="2"/>
       <c r="AM151" s="2"/>
       <c r="AN151" s="2"/>
-    </row>
-    <row r="152" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO151" s="2"/>
+    </row>
+    <row r="152" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W152" s="2"/>
       <c r="X152" s="2"/>
       <c r="Y152" s="2"/>
@@ -4112,8 +4733,9 @@
       <c r="AL152" s="2"/>
       <c r="AM152" s="2"/>
       <c r="AN152" s="2"/>
-    </row>
-    <row r="153" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO152" s="2"/>
+    </row>
+    <row r="153" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W153" s="2"/>
       <c r="X153" s="2"/>
       <c r="Y153" s="2"/>
@@ -4132,8 +4754,9 @@
       <c r="AL153" s="2"/>
       <c r="AM153" s="2"/>
       <c r="AN153" s="2"/>
-    </row>
-    <row r="154" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO153" s="2"/>
+    </row>
+    <row r="154" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W154" s="2"/>
       <c r="X154" s="2"/>
       <c r="Y154" s="2"/>
@@ -4152,8 +4775,9 @@
       <c r="AL154" s="2"/>
       <c r="AM154" s="2"/>
       <c r="AN154" s="2"/>
-    </row>
-    <row r="155" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO154" s="2"/>
+    </row>
+    <row r="155" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W155" s="2"/>
       <c r="X155" s="2"/>
       <c r="Y155" s="2"/>
@@ -4172,8 +4796,9 @@
       <c r="AL155" s="2"/>
       <c r="AM155" s="2"/>
       <c r="AN155" s="2"/>
-    </row>
-    <row r="156" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO155" s="2"/>
+    </row>
+    <row r="156" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W156" s="2"/>
       <c r="X156" s="2"/>
       <c r="Y156" s="2"/>
@@ -4192,8 +4817,9 @@
       <c r="AL156" s="2"/>
       <c r="AM156" s="2"/>
       <c r="AN156" s="2"/>
-    </row>
-    <row r="157" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO156" s="2"/>
+    </row>
+    <row r="157" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W157" s="2"/>
       <c r="X157" s="2"/>
       <c r="Y157" s="2"/>
@@ -4212,8 +4838,9 @@
       <c r="AL157" s="2"/>
       <c r="AM157" s="2"/>
       <c r="AN157" s="2"/>
-    </row>
-    <row r="158" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO157" s="2"/>
+    </row>
+    <row r="158" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W158" s="2"/>
       <c r="X158" s="2"/>
       <c r="Y158" s="2"/>
@@ -4232,8 +4859,9 @@
       <c r="AL158" s="2"/>
       <c r="AM158" s="2"/>
       <c r="AN158" s="2"/>
-    </row>
-    <row r="159" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO158" s="2"/>
+    </row>
+    <row r="159" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W159" s="2"/>
       <c r="X159" s="2"/>
       <c r="Y159" s="2"/>
@@ -4252,8 +4880,9 @@
       <c r="AL159" s="2"/>
       <c r="AM159" s="2"/>
       <c r="AN159" s="2"/>
-    </row>
-    <row r="160" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO159" s="2"/>
+    </row>
+    <row r="160" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W160" s="2"/>
       <c r="X160" s="2"/>
       <c r="Y160" s="2"/>
@@ -4272,8 +4901,9 @@
       <c r="AL160" s="2"/>
       <c r="AM160" s="2"/>
       <c r="AN160" s="2"/>
-    </row>
-    <row r="161" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO160" s="2"/>
+    </row>
+    <row r="161" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W161" s="2"/>
       <c r="X161" s="2"/>
       <c r="Y161" s="2"/>
@@ -4292,8 +4922,9 @@
       <c r="AL161" s="2"/>
       <c r="AM161" s="2"/>
       <c r="AN161" s="2"/>
-    </row>
-    <row r="162" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO161" s="2"/>
+    </row>
+    <row r="162" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W162" s="2"/>
       <c r="X162" s="2"/>
       <c r="Y162" s="2"/>
@@ -4312,8 +4943,9 @@
       <c r="AL162" s="2"/>
       <c r="AM162" s="2"/>
       <c r="AN162" s="2"/>
-    </row>
-    <row r="163" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO162" s="2"/>
+    </row>
+    <row r="163" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W163" s="2"/>
       <c r="X163" s="2"/>
       <c r="Y163" s="2"/>
@@ -4332,8 +4964,9 @@
       <c r="AL163" s="2"/>
       <c r="AM163" s="2"/>
       <c r="AN163" s="2"/>
-    </row>
-    <row r="164" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO163" s="2"/>
+    </row>
+    <row r="164" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W164" s="2"/>
       <c r="X164" s="2"/>
       <c r="Y164" s="2"/>
@@ -4352,8 +4985,9 @@
       <c r="AL164" s="2"/>
       <c r="AM164" s="2"/>
       <c r="AN164" s="2"/>
-    </row>
-    <row r="165" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO164" s="2"/>
+    </row>
+    <row r="165" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W165" s="2"/>
       <c r="X165" s="2"/>
       <c r="Y165" s="2"/>
@@ -4372,8 +5006,9 @@
       <c r="AL165" s="2"/>
       <c r="AM165" s="2"/>
       <c r="AN165" s="2"/>
-    </row>
-    <row r="166" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO165" s="2"/>
+    </row>
+    <row r="166" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W166" s="2"/>
       <c r="X166" s="2"/>
       <c r="Y166" s="2"/>
@@ -4392,8 +5027,9 @@
       <c r="AL166" s="2"/>
       <c r="AM166" s="2"/>
       <c r="AN166" s="2"/>
-    </row>
-    <row r="167" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO166" s="2"/>
+    </row>
+    <row r="167" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W167" s="2"/>
       <c r="X167" s="2"/>
       <c r="Y167" s="2"/>
@@ -4412,8 +5048,9 @@
       <c r="AL167" s="2"/>
       <c r="AM167" s="2"/>
       <c r="AN167" s="2"/>
-    </row>
-    <row r="168" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO167" s="2"/>
+    </row>
+    <row r="168" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W168" s="2"/>
       <c r="X168" s="2"/>
       <c r="Y168" s="2"/>
@@ -4432,8 +5069,9 @@
       <c r="AL168" s="2"/>
       <c r="AM168" s="2"/>
       <c r="AN168" s="2"/>
-    </row>
-    <row r="169" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO168" s="2"/>
+    </row>
+    <row r="169" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W169" s="2"/>
       <c r="X169" s="2"/>
       <c r="Y169" s="2"/>
@@ -4452,8 +5090,9 @@
       <c r="AL169" s="2"/>
       <c r="AM169" s="2"/>
       <c r="AN169" s="2"/>
-    </row>
-    <row r="170" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO169" s="2"/>
+    </row>
+    <row r="170" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W170" s="2"/>
       <c r="X170" s="2"/>
       <c r="Y170" s="2"/>
@@ -4472,8 +5111,9 @@
       <c r="AL170" s="2"/>
       <c r="AM170" s="2"/>
       <c r="AN170" s="2"/>
-    </row>
-    <row r="171" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO170" s="2"/>
+    </row>
+    <row r="171" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W171" s="2"/>
       <c r="X171" s="2"/>
       <c r="Y171" s="2"/>
@@ -4492,8 +5132,9 @@
       <c r="AL171" s="2"/>
       <c r="AM171" s="2"/>
       <c r="AN171" s="2"/>
-    </row>
-    <row r="172" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO171" s="2"/>
+    </row>
+    <row r="172" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W172" s="2"/>
       <c r="X172" s="2"/>
       <c r="Y172" s="2"/>
@@ -4512,8 +5153,9 @@
       <c r="AL172" s="2"/>
       <c r="AM172" s="2"/>
       <c r="AN172" s="2"/>
-    </row>
-    <row r="173" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO172" s="2"/>
+    </row>
+    <row r="173" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W173" s="2"/>
       <c r="X173" s="2"/>
       <c r="Y173" s="2"/>
@@ -4532,8 +5174,9 @@
       <c r="AL173" s="2"/>
       <c r="AM173" s="2"/>
       <c r="AN173" s="2"/>
-    </row>
-    <row r="174" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO173" s="2"/>
+    </row>
+    <row r="174" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W174" s="2"/>
       <c r="X174" s="2"/>
       <c r="Y174" s="2"/>
@@ -4552,8 +5195,9 @@
       <c r="AL174" s="2"/>
       <c r="AM174" s="2"/>
       <c r="AN174" s="2"/>
-    </row>
-    <row r="175" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO174" s="2"/>
+    </row>
+    <row r="175" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W175" s="2"/>
       <c r="X175" s="2"/>
       <c r="Y175" s="2"/>
@@ -4572,8 +5216,9 @@
       <c r="AL175" s="2"/>
       <c r="AM175" s="2"/>
       <c r="AN175" s="2"/>
-    </row>
-    <row r="176" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO175" s="2"/>
+    </row>
+    <row r="176" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W176" s="2"/>
       <c r="X176" s="2"/>
       <c r="Y176" s="2"/>
@@ -4592,8 +5237,9 @@
       <c r="AL176" s="2"/>
       <c r="AM176" s="2"/>
       <c r="AN176" s="2"/>
-    </row>
-    <row r="177" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO176" s="2"/>
+    </row>
+    <row r="177" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W177" s="2"/>
       <c r="X177" s="2"/>
       <c r="Y177" s="2"/>
@@ -4612,8 +5258,9 @@
       <c r="AL177" s="2"/>
       <c r="AM177" s="2"/>
       <c r="AN177" s="2"/>
-    </row>
-    <row r="178" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO177" s="2"/>
+    </row>
+    <row r="178" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W178" s="2"/>
       <c r="X178" s="2"/>
       <c r="Y178" s="2"/>
@@ -4632,8 +5279,9 @@
       <c r="AL178" s="2"/>
       <c r="AM178" s="2"/>
       <c r="AN178" s="2"/>
-    </row>
-    <row r="179" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO178" s="2"/>
+    </row>
+    <row r="179" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W179" s="2"/>
       <c r="X179" s="2"/>
       <c r="Y179" s="2"/>
@@ -4652,8 +5300,9 @@
       <c r="AL179" s="2"/>
       <c r="AM179" s="2"/>
       <c r="AN179" s="2"/>
-    </row>
-    <row r="180" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO179" s="2"/>
+    </row>
+    <row r="180" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W180" s="2"/>
       <c r="X180" s="2"/>
       <c r="Y180" s="2"/>
@@ -4672,8 +5321,9 @@
       <c r="AL180" s="2"/>
       <c r="AM180" s="2"/>
       <c r="AN180" s="2"/>
-    </row>
-    <row r="181" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO180" s="2"/>
+    </row>
+    <row r="181" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W181" s="2"/>
       <c r="X181" s="2"/>
       <c r="Y181" s="2"/>
@@ -4692,8 +5342,9 @@
       <c r="AL181" s="2"/>
       <c r="AM181" s="2"/>
       <c r="AN181" s="2"/>
-    </row>
-    <row r="182" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO181" s="2"/>
+    </row>
+    <row r="182" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W182" s="2"/>
       <c r="X182" s="2"/>
       <c r="Y182" s="2"/>
@@ -4712,8 +5363,9 @@
       <c r="AL182" s="2"/>
       <c r="AM182" s="2"/>
       <c r="AN182" s="2"/>
-    </row>
-    <row r="183" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO182" s="2"/>
+    </row>
+    <row r="183" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W183" s="2"/>
       <c r="X183" s="2"/>
       <c r="Y183" s="2"/>
@@ -4732,8 +5384,9 @@
       <c r="AL183" s="2"/>
       <c r="AM183" s="2"/>
       <c r="AN183" s="2"/>
-    </row>
-    <row r="184" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO183" s="2"/>
+    </row>
+    <row r="184" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W184" s="2"/>
       <c r="X184" s="2"/>
       <c r="Y184" s="2"/>
@@ -4752,8 +5405,9 @@
       <c r="AL184" s="2"/>
       <c r="AM184" s="2"/>
       <c r="AN184" s="2"/>
-    </row>
-    <row r="185" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO184" s="2"/>
+    </row>
+    <row r="185" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W185" s="2"/>
       <c r="X185" s="2"/>
       <c r="Y185" s="2"/>
@@ -4772,8 +5426,9 @@
       <c r="AL185" s="2"/>
       <c r="AM185" s="2"/>
       <c r="AN185" s="2"/>
-    </row>
-    <row r="186" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO185" s="2"/>
+    </row>
+    <row r="186" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W186" s="2"/>
       <c r="X186" s="2"/>
       <c r="Y186" s="2"/>
@@ -4792,8 +5447,9 @@
       <c r="AL186" s="2"/>
       <c r="AM186" s="2"/>
       <c r="AN186" s="2"/>
-    </row>
-    <row r="187" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO186" s="2"/>
+    </row>
+    <row r="187" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W187" s="2"/>
       <c r="X187" s="2"/>
       <c r="Y187" s="2"/>
@@ -4812,8 +5468,9 @@
       <c r="AL187" s="2"/>
       <c r="AM187" s="2"/>
       <c r="AN187" s="2"/>
-    </row>
-    <row r="188" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO187" s="2"/>
+    </row>
+    <row r="188" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W188" s="2"/>
       <c r="X188" s="2"/>
       <c r="Y188" s="2"/>
@@ -4832,8 +5489,9 @@
       <c r="AL188" s="2"/>
       <c r="AM188" s="2"/>
       <c r="AN188" s="2"/>
-    </row>
-    <row r="189" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO188" s="2"/>
+    </row>
+    <row r="189" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W189" s="2"/>
       <c r="X189" s="2"/>
       <c r="Y189" s="2"/>
@@ -4852,8 +5510,9 @@
       <c r="AL189" s="2"/>
       <c r="AM189" s="2"/>
       <c r="AN189" s="2"/>
-    </row>
-    <row r="190" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO189" s="2"/>
+    </row>
+    <row r="190" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W190" s="2"/>
       <c r="X190" s="2"/>
       <c r="Y190" s="2"/>
@@ -4872,8 +5531,9 @@
       <c r="AL190" s="2"/>
       <c r="AM190" s="2"/>
       <c r="AN190" s="2"/>
-    </row>
-    <row r="191" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO190" s="2"/>
+    </row>
+    <row r="191" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W191" s="2"/>
       <c r="X191" s="2"/>
       <c r="Y191" s="2"/>
@@ -4892,8 +5552,9 @@
       <c r="AL191" s="2"/>
       <c r="AM191" s="2"/>
       <c r="AN191" s="2"/>
-    </row>
-    <row r="192" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO191" s="2"/>
+    </row>
+    <row r="192" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W192" s="2"/>
       <c r="X192" s="2"/>
       <c r="Y192" s="2"/>
@@ -4912,8 +5573,9 @@
       <c r="AL192" s="2"/>
       <c r="AM192" s="2"/>
       <c r="AN192" s="2"/>
-    </row>
-    <row r="193" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO192" s="2"/>
+    </row>
+    <row r="193" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W193" s="2"/>
       <c r="X193" s="2"/>
       <c r="Y193" s="2"/>
@@ -4932,8 +5594,9 @@
       <c r="AL193" s="2"/>
       <c r="AM193" s="2"/>
       <c r="AN193" s="2"/>
-    </row>
-    <row r="194" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO193" s="2"/>
+    </row>
+    <row r="194" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W194" s="2"/>
       <c r="X194" s="2"/>
       <c r="Y194" s="2"/>
@@ -4952,8 +5615,9 @@
       <c r="AL194" s="2"/>
       <c r="AM194" s="2"/>
       <c r="AN194" s="2"/>
-    </row>
-    <row r="195" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO194" s="2"/>
+    </row>
+    <row r="195" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W195" s="2"/>
       <c r="X195" s="2"/>
       <c r="Y195" s="2"/>
@@ -4972,8 +5636,9 @@
       <c r="AL195" s="2"/>
       <c r="AM195" s="2"/>
       <c r="AN195" s="2"/>
-    </row>
-    <row r="196" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO195" s="2"/>
+    </row>
+    <row r="196" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W196" s="2"/>
       <c r="X196" s="2"/>
       <c r="Y196" s="2"/>
@@ -4992,8 +5657,9 @@
       <c r="AL196" s="2"/>
       <c r="AM196" s="2"/>
       <c r="AN196" s="2"/>
-    </row>
-    <row r="197" spans="23:40" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO196" s="2"/>
+    </row>
+    <row r="197" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W197" s="2"/>
       <c r="X197" s="2"/>
       <c r="Y197" s="2"/>
@@ -5012,28 +5678,71 @@
       <c r="AL197" s="2"/>
       <c r="AM197" s="2"/>
       <c r="AN197" s="2"/>
+      <c r="AO197" s="2"/>
+    </row>
+    <row r="198" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W198" s="2"/>
+      <c r="X198" s="2"/>
+      <c r="Y198" s="2"/>
+      <c r="Z198" s="2"/>
+      <c r="AA198" s="2"/>
+      <c r="AB198" s="2"/>
+      <c r="AC198" s="2"/>
+      <c r="AD198" s="2"/>
+      <c r="AE198" s="2"/>
+      <c r="AF198" s="2"/>
+      <c r="AG198" s="2"/>
+      <c r="AH198" s="2"/>
+      <c r="AI198" s="2"/>
+      <c r="AJ198" s="2"/>
+      <c r="AK198" s="2"/>
+      <c r="AL198" s="2"/>
+      <c r="AM198" s="2"/>
+      <c r="AN198" s="2"/>
+      <c r="AO198" s="2"/>
+    </row>
+    <row r="199" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W199" s="2"/>
+      <c r="X199" s="2"/>
+      <c r="Y199" s="2"/>
+      <c r="Z199" s="2"/>
+      <c r="AA199" s="2"/>
+      <c r="AB199" s="2"/>
+      <c r="AC199" s="2"/>
+      <c r="AD199" s="2"/>
+      <c r="AE199" s="2"/>
+      <c r="AF199" s="2"/>
+      <c r="AG199" s="2"/>
+      <c r="AH199" s="2"/>
+      <c r="AI199" s="2"/>
+      <c r="AJ199" s="2"/>
+      <c r="AK199" s="2"/>
+      <c r="AL199" s="2"/>
+      <c r="AM199" s="2"/>
+      <c r="AN199" s="2"/>
+      <c r="AO199" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="S12:T12"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="I2:K2"/>
-    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="S10:S11"/>
   </mergeCells>
-  <phoneticPr fontId="5"/>
-  <conditionalFormatting sqref="A7:B7 D7:R7">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <phoneticPr fontId="6"/>
+  <conditionalFormatting sqref="A7:B9 D7:R9">
+    <cfRule type="expression" dxfId="1" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:B7">
-    <cfRule type="expression" dxfId="0" priority="3">
+  <conditionalFormatting sqref="A7:B9">
+    <cfRule type="expression" dxfId="0" priority="19">
       <formula>MOD(ROW(),2)=2</formula>
     </cfRule>
-    <cfRule type="expression" priority="4">
+    <cfRule type="expression" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/src/main/resources/com/example/convert_toriai_pdf_to_excel/sampleFiles/sample files.xlsx
+++ b/src/main/resources/com/example/convert_toriai_pdf_to_excel/sampleFiles/sample files.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Desktop-nbguk0t\don_hang-du_lieu\注文-DON HANG\MẪU LÀM ĐƠN\test may cat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HuanTech PC\IdeaProjects\convert toriai pdf to excel\src\main\resources\com\example\convert_toriai_pdf_to_excel\sampleFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="sample" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">sample!$A$1:$T$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">sample!$A$1:$T$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">sample!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="162913" iterate="1"/>
@@ -1021,11 +1021,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BI199"/>
+  <dimension ref="A1:BI197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:I1"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8:R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1037,8 +1037,7 @@
     <col min="20" max="20" width="6.625" style="10" customWidth="1"/>
     <col min="21" max="22" width="9" style="10"/>
     <col min="23" max="25" width="9" style="2"/>
-    <col min="26" max="41" width="9" style="2" hidden="1" customWidth="1"/>
-    <col min="42" max="61" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="26" max="61" width="9" style="2" customWidth="1"/>
     <col min="62" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1231,59 +1230,59 @@
         <v>0</v>
       </c>
       <c r="AR4" s="2">
-        <f t="shared" ref="AR4:BE4" si="0">E4*E5</f>
+        <f>E4*E5</f>
         <v>0</v>
       </c>
       <c r="AS4" s="2">
-        <f t="shared" si="0"/>
+        <f>F4*F5</f>
         <v>0</v>
       </c>
       <c r="AT4" s="2">
-        <f t="shared" si="0"/>
+        <f>G4*G5</f>
         <v>0</v>
       </c>
       <c r="AU4" s="2">
-        <f t="shared" si="0"/>
+        <f>H4*H5</f>
         <v>0</v>
       </c>
       <c r="AV4" s="2">
-        <f t="shared" si="0"/>
+        <f>I4*I5</f>
         <v>0</v>
       </c>
       <c r="AW4" s="2">
-        <f t="shared" si="0"/>
+        <f>J4*J5</f>
         <v>0</v>
       </c>
       <c r="AX4" s="2">
-        <f t="shared" si="0"/>
+        <f>K4*K5</f>
         <v>0</v>
       </c>
       <c r="AY4" s="2">
-        <f t="shared" si="0"/>
+        <f>L4*L5</f>
         <v>0</v>
       </c>
       <c r="AZ4" s="2">
-        <f t="shared" si="0"/>
+        <f>M4*M5</f>
         <v>0</v>
       </c>
       <c r="BA4" s="2">
-        <f t="shared" si="0"/>
+        <f>N4*N5</f>
         <v>0</v>
       </c>
       <c r="BB4" s="2">
-        <f t="shared" si="0"/>
+        <f>O4*O5</f>
         <v>0</v>
       </c>
       <c r="BC4" s="2">
-        <f t="shared" si="0"/>
+        <f>P4*P5</f>
         <v>0</v>
       </c>
       <c r="BD4" s="2">
-        <f t="shared" si="0"/>
+        <f>Q4*Q5</f>
         <v>0</v>
       </c>
       <c r="BE4" s="2">
-        <f t="shared" si="0"/>
+        <f>R4*R5</f>
         <v>0</v>
       </c>
     </row>
@@ -1312,7 +1311,7 @@
         <v>21</v>
       </c>
       <c r="T5" s="20">
-        <f>S10*C3/1000</f>
+        <f>S8*C3/1000</f>
         <v>0</v>
       </c>
       <c r="U5" s="37"/>
@@ -1353,7 +1352,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:61" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:61" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="32"/>
       <c r="B7" s="29"/>
       <c r="C7" s="19"/>
@@ -1373,7 +1372,7 @@
       <c r="Q7" s="5"/>
       <c r="R7" s="24"/>
       <c r="S7" s="28">
-        <f t="shared" ref="S7:S9" si="1">A7*B7</f>
+        <f>A7*B7</f>
         <v>0</v>
       </c>
       <c r="T7" s="30">
@@ -1386,119 +1385,119 @@
         <v>0</v>
       </c>
       <c r="AA7" s="2">
-        <f t="shared" ref="AA7:AN7" si="2">($A7+$K$3)*E7</f>
+        <f>($A7+$K$3)*E7</f>
         <v>0</v>
       </c>
       <c r="AB7" s="2">
-        <f t="shared" si="2"/>
+        <f>($A7+$K$3)*F7</f>
         <v>0</v>
       </c>
       <c r="AC7" s="2">
-        <f t="shared" si="2"/>
+        <f>($A7+$K$3)*G7</f>
         <v>0</v>
       </c>
       <c r="AD7" s="2">
-        <f t="shared" si="2"/>
+        <f>($A7+$K$3)*H7</f>
         <v>0</v>
       </c>
       <c r="AE7" s="2">
-        <f t="shared" si="2"/>
+        <f>($A7+$K$3)*I7</f>
         <v>0</v>
       </c>
       <c r="AF7" s="2">
-        <f t="shared" si="2"/>
+        <f>($A7+$K$3)*J7</f>
         <v>0</v>
       </c>
       <c r="AG7" s="2">
-        <f t="shared" si="2"/>
+        <f>($A7+$K$3)*K7</f>
         <v>0</v>
       </c>
       <c r="AH7" s="2">
-        <f t="shared" si="2"/>
+        <f>($A7+$K$3)*L7</f>
         <v>0</v>
       </c>
       <c r="AI7" s="2">
-        <f t="shared" si="2"/>
+        <f>($A7+$K$3)*M7</f>
         <v>0</v>
       </c>
       <c r="AJ7" s="2">
-        <f t="shared" si="2"/>
+        <f>($A7+$K$3)*N7</f>
         <v>0</v>
       </c>
       <c r="AK7" s="2">
-        <f t="shared" si="2"/>
+        <f>($A7+$K$3)*O7</f>
         <v>0</v>
       </c>
       <c r="AL7" s="2">
-        <f t="shared" si="2"/>
+        <f>($A7+$K$3)*P7</f>
         <v>0</v>
       </c>
       <c r="AM7" s="2">
-        <f t="shared" si="2"/>
+        <f>($A7+$K$3)*Q7</f>
         <v>0</v>
       </c>
       <c r="AN7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AN7" si="0">($A7+$K$3)*R7</f>
         <v>0</v>
       </c>
       <c r="AQ7" s="2">
-        <f t="shared" ref="AQ7:BC9" si="3">D7*D$5</f>
+        <f>D7*D$5</f>
         <v>0</v>
       </c>
       <c r="AR7" s="2">
-        <f t="shared" si="3"/>
+        <f>E7*E$5</f>
         <v>0</v>
       </c>
       <c r="AS7" s="2">
-        <f t="shared" si="3"/>
+        <f>F7*F$5</f>
         <v>0</v>
       </c>
       <c r="AT7" s="2">
-        <f t="shared" si="3"/>
+        <f>G7*G$5</f>
         <v>0</v>
       </c>
       <c r="AU7" s="2">
-        <f t="shared" si="3"/>
+        <f>H7*H$5</f>
         <v>0</v>
       </c>
       <c r="AV7" s="2">
-        <f t="shared" si="3"/>
+        <f>I7*I$5</f>
         <v>0</v>
       </c>
       <c r="AW7" s="2">
-        <f t="shared" si="3"/>
+        <f>J7*J$5</f>
         <v>0</v>
       </c>
       <c r="AX7" s="2">
-        <f t="shared" si="3"/>
+        <f>K7*K$5</f>
         <v>0</v>
       </c>
       <c r="AY7" s="2">
-        <f t="shared" si="3"/>
+        <f>L7*L$5</f>
         <v>0</v>
       </c>
       <c r="AZ7" s="2">
-        <f t="shared" si="3"/>
+        <f>M7*M$5</f>
         <v>0</v>
       </c>
       <c r="BA7" s="2">
-        <f t="shared" si="3"/>
+        <f>N7*N$5</f>
         <v>0</v>
       </c>
       <c r="BB7" s="2">
-        <f t="shared" si="3"/>
+        <f>O7*O$5</f>
         <v>0</v>
       </c>
       <c r="BC7" s="2">
-        <f t="shared" si="3"/>
+        <f>P7*P$5</f>
         <v>0</v>
       </c>
       <c r="BD7" s="2">
-        <f t="shared" ref="BD7:BE7" si="4">Q7*Q$5</f>
+        <f t="shared" ref="BD7" si="1">Q7*Q$5</f>
         <v>0</v>
       </c>
       <c r="BE7" s="2">
-        <f t="shared" si="4"/>
+        <f>R7*R$5</f>
         <v>0</v>
       </c>
       <c r="BH7" s="36">
@@ -1511,500 +1510,230 @@
       </c>
     </row>
     <row r="8" spans="1:61" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="32"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T8" s="30">
-        <f t="shared" ref="T8:T9" si="5">B8-SUM(AP8:BF8)</f>
-        <v>0</v>
-      </c>
-      <c r="Z8" s="2">
-        <f t="shared" ref="Z8:Z9" si="6">($A8+$K$3)*D8</f>
-        <v>0</v>
-      </c>
-      <c r="AA8" s="2">
-        <f t="shared" ref="AA8:AA9" si="7">($A8+$K$3)*E8</f>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="2">
-        <f t="shared" ref="AB8:AB9" si="8">($A8+$K$3)*F8</f>
-        <v>0</v>
-      </c>
-      <c r="AC8" s="2">
-        <f t="shared" ref="AC8:AC9" si="9">($A8+$K$3)*G8</f>
-        <v>0</v>
-      </c>
-      <c r="AD8" s="2">
-        <f t="shared" ref="AD8:AD9" si="10">($A8+$K$3)*H8</f>
-        <v>0</v>
-      </c>
-      <c r="AE8" s="2">
-        <f t="shared" ref="AE8:AE9" si="11">($A8+$K$3)*I8</f>
-        <v>0</v>
-      </c>
-      <c r="AF8" s="2">
-        <f t="shared" ref="AF8:AF9" si="12">($A8+$K$3)*J8</f>
-        <v>0</v>
-      </c>
-      <c r="AG8" s="2">
-        <f t="shared" ref="AG8:AG9" si="13">($A8+$K$3)*K8</f>
-        <v>0</v>
-      </c>
-      <c r="AH8" s="2">
-        <f t="shared" ref="AH8:AH9" si="14">($A8+$K$3)*L8</f>
-        <v>0</v>
-      </c>
-      <c r="AI8" s="2">
-        <f t="shared" ref="AI8:AI9" si="15">($A8+$K$3)*M8</f>
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="2">
-        <f t="shared" ref="AJ8:AJ9" si="16">($A8+$K$3)*N8</f>
-        <v>0</v>
-      </c>
-      <c r="AK8" s="2">
-        <f t="shared" ref="AK8:AK9" si="17">($A8+$K$3)*O8</f>
-        <v>0</v>
-      </c>
-      <c r="AL8" s="2">
-        <f t="shared" ref="AL8:AL9" si="18">($A8+$K$3)*P8</f>
-        <v>0</v>
-      </c>
-      <c r="AM8" s="2">
-        <f t="shared" ref="AM8:AM9" si="19">($A8+$K$3)*Q8</f>
-        <v>0</v>
-      </c>
-      <c r="AN8" s="2">
-        <f t="shared" ref="AN8:AN9" si="20">($A8+$K$3)*R8</f>
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AR8" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AS8" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AT8" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AU8" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AV8" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AW8" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AX8" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AY8" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BA8" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BB8" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BC8" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD8" s="2">
-        <f t="shared" ref="BD8:BD9" si="21">Q8*Q$5</f>
-        <v>0</v>
-      </c>
-      <c r="BE8" s="2">
-        <f t="shared" ref="BE8:BE9" si="22">R8*R$5</f>
-        <v>0</v>
-      </c>
-      <c r="BH8" s="36">
-        <f t="shared" ref="BH8:BH9" si="23">S8</f>
-        <v>0</v>
-      </c>
-      <c r="BI8" s="36">
-        <f t="shared" ref="BI8:BI9" si="24">T8</f>
-        <v>0</v>
-      </c>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="6">
+        <f>SUM(Z6:Z8)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <f>SUM(AA6:AA8)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <f>SUM(AB6:AB8)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <f>SUM(AC6:AC8)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <f>SUM(AD6:AD8)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <f>SUM(AE6:AE8)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <f>SUM(AF6:AF8)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <f>SUM(AG6:AG8)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <f>SUM(AH6:AH8)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <f>SUM(AI6:AI8)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <f>SUM(AJ6:AJ8)</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="6">
+        <f>SUM(AK6:AK8)</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
+        <f>SUM(AL6:AL8)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <f>SUM(AM6:AM8)</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="6">
+        <f>SUM(AN6:AN8)</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="43">
+        <f>SUM(BH6:BH8)</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="38">
+        <f>SUM(BI6:BI8)</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="37"/>
     </row>
     <row r="9" spans="1:61" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T9" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AA9" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AC9" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AD9" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AE9" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AF9" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AG9" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AH9" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AI9" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AK9" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AL9" s="2">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AM9" s="2">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AN9" s="2">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AR9" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AS9" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AT9" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AU9" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AV9" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AW9" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AX9" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AY9" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BA9" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BB9" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BC9" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BD9" s="2">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BE9" s="2">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="BH9" s="36">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="BI9" s="36">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:61" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="6">
-        <f>SUM(Z5:Z10)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <f>SUM(AA6:AA10)</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <f>SUM(AB6:AB10)</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
-        <f>SUM(AC6:AC10)</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="6">
-        <f>SUM(AD6:AD10)</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="6">
-        <f>SUM(AE6:AE10)</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="6">
-        <f>SUM(AF6:AF10)</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="6">
-        <f>SUM(AG6:AG10)</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="6">
-        <f>SUM(AH6:AH10)</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="6">
-        <f>SUM(AI6:AI10)</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="6">
-        <f>SUM(AJ6:AJ10)</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="6">
-        <f>SUM(AK6:AK10)</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="6">
-        <f>SUM(AL6:AL10)</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="6">
-        <f>SUM(AM6:AM10)</f>
-        <v>0</v>
-      </c>
-      <c r="R10" s="6">
-        <f>SUM(AN6:AN10)</f>
-        <v>0</v>
-      </c>
-      <c r="S10" s="43">
-        <f>SUM(BH6:BH10)</f>
-        <v>0</v>
-      </c>
-      <c r="T10" s="38">
-        <f>SUM(BI6:BI10)</f>
-        <v>0</v>
-      </c>
-      <c r="U10" s="37"/>
-    </row>
-    <row r="11" spans="1:61" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="25" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="3">
-        <f>D4-D10</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <f>E4-E10</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <f>F4-F10</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <f>G4-G10</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <f>H4-H10</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
-        <f>I4-I10</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
-        <f>J4-J10</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="3">
-        <f>K4-K10</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="3">
-        <f>L4-L10</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="3">
-        <f>M4-M10</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="3">
-        <f>N4-N10</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="3">
-        <f>O4-O10</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="3">
-        <f>P4-P10</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="3">
-        <f>Q4-Q10</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="22">
-        <f>R4-R10</f>
-        <v>0</v>
-      </c>
-      <c r="S11" s="44"/>
-      <c r="T11" s="39"/>
-    </row>
-    <row r="12" spans="1:61" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="13" t="s">
+      <c r="D9" s="3">
+        <f>D4-D8</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <f>E4-E8</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <f>F4-F8</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <f>G4-G8</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <f>H4-H8</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <f>I4-I8</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <f>J4-J8</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <f>K4-K8</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <f>L4-L8</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <f>M4-M8</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <f>N4-N8</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <f>O4-O8</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <f>P4-P8</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <f>Q4-Q8</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="22">
+        <f>R4-R8</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="44"/>
+      <c r="T9" s="39"/>
+    </row>
+    <row r="10" spans="1:61" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="40" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="T12" s="40"/>
-    </row>
-    <row r="13" spans="1:61" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="S13" s="37"/>
-    </row>
+      <c r="T10" s="40"/>
+    </row>
+    <row r="11" spans="1:61" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S11" s="37"/>
+    </row>
+    <row r="12" spans="1:61" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:61" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="14" spans="1:61" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="1:61" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="1:61" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="23:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="23:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="23:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="23:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="23:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="23:41" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="23:41" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="23:41" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="23:41" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="23:41" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+    </row>
+    <row r="22" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+    </row>
     <row r="23" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -3538,7 +3267,7 @@
       <c r="AN95" s="2"/>
       <c r="AO95" s="2"/>
     </row>
-    <row r="96" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W96" s="2"/>
       <c r="X96" s="2"/>
       <c r="Y96" s="2"/>
@@ -3559,7 +3288,7 @@
       <c r="AN96" s="2"/>
       <c r="AO96" s="2"/>
     </row>
-    <row r="97" spans="23:41" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W97" s="2"/>
       <c r="X97" s="2"/>
       <c r="Y97" s="2"/>
@@ -5680,65 +5409,23 @@
       <c r="AN197" s="2"/>
       <c r="AO197" s="2"/>
     </row>
-    <row r="198" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="W198" s="2"/>
-      <c r="X198" s="2"/>
-      <c r="Y198" s="2"/>
-      <c r="Z198" s="2"/>
-      <c r="AA198" s="2"/>
-      <c r="AB198" s="2"/>
-      <c r="AC198" s="2"/>
-      <c r="AD198" s="2"/>
-      <c r="AE198" s="2"/>
-      <c r="AF198" s="2"/>
-      <c r="AG198" s="2"/>
-      <c r="AH198" s="2"/>
-      <c r="AI198" s="2"/>
-      <c r="AJ198" s="2"/>
-      <c r="AK198" s="2"/>
-      <c r="AL198" s="2"/>
-      <c r="AM198" s="2"/>
-      <c r="AN198" s="2"/>
-      <c r="AO198" s="2"/>
-    </row>
-    <row r="199" spans="23:41" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="W199" s="2"/>
-      <c r="X199" s="2"/>
-      <c r="Y199" s="2"/>
-      <c r="Z199" s="2"/>
-      <c r="AA199" s="2"/>
-      <c r="AB199" s="2"/>
-      <c r="AC199" s="2"/>
-      <c r="AD199" s="2"/>
-      <c r="AE199" s="2"/>
-      <c r="AF199" s="2"/>
-      <c r="AG199" s="2"/>
-      <c r="AH199" s="2"/>
-      <c r="AI199" s="2"/>
-      <c r="AJ199" s="2"/>
-      <c r="AK199" s="2"/>
-      <c r="AL199" s="2"/>
-      <c r="AM199" s="2"/>
-      <c r="AN199" s="2"/>
-      <c r="AO199" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="S10:T10"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="I2:K2"/>
-    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="S8:S9"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
-  <conditionalFormatting sqref="A7:B9 D7:R9">
+  <conditionalFormatting sqref="A7:B7 D7:R7">
     <cfRule type="expression" dxfId="1" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:B9">
+  <conditionalFormatting sqref="A7:B7">
     <cfRule type="expression" dxfId="0" priority="19">
       <formula>MOD(ROW(),2)=2</formula>
     </cfRule>

--- a/src/main/resources/com/example/convert_toriai_pdf_to_excel/sampleFiles/sample files.xlsx
+++ b/src/main/resources/com/example/convert_toriai_pdf_to_excel/sampleFiles/sample files.xlsx
@@ -18,12 +18,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">sample!$A$1:$T$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">sample!$1:$6</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterate="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t>母材長</t>
   </si>
@@ -101,89 +101,24 @@
   </si>
   <si>
     <t>単重</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>注番</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>TÍNH TỔNG CHIỀU DÀI SẢN PHẨM Ô A7 ĐÃ SỬ DỤNG TẠI Ô D7, BAO GỒM CẢ KIRIROSU =($A7+$K$3)*D7</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <t>TÍNH TỔNG CHIỀU DÀI BOZAI TẠI Ô D4, TÍNH CẢ SỐ L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ỢNG =D4*D5</t>
-    </r>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <r>
-      <t>TÍNH TỔNG SỐ L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ỢNG BOZAI Ô D4 ĐÃ SỬ DỤNG TRONG Ô D7 =D7*D$5 </t>
-    </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -576,7 +511,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -584,121 +519,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
@@ -707,24 +642,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1025,7 +960,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8:R8"/>
+      <selection pane="bottomLeft" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1192,9 +1127,7 @@
         <v>22</v>
       </c>
       <c r="U3" s="37"/>
-      <c r="AQ3" s="36" t="s">
-        <v>28</v>
-      </c>
+      <c r="AQ3" s="36"/>
     </row>
     <row r="4" spans="1:61" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8"/>
@@ -1226,63 +1159,63 @@
       </c>
       <c r="U4" s="37"/>
       <c r="AQ4" s="2">
-        <f>D4*D5</f>
+        <f t="shared" ref="AQ4:BE4" si="0">D4*D5</f>
         <v>0</v>
       </c>
       <c r="AR4" s="2">
-        <f>E4*E5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AS4" s="2">
-        <f>F4*F5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AT4" s="2">
-        <f>G4*G5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AU4" s="2">
-        <f>H4*H5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AV4" s="2">
-        <f>I4*I5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AW4" s="2">
-        <f>J4*J5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AX4" s="2">
-        <f>K4*K5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AY4" s="2">
-        <f>L4*L5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AZ4" s="2">
-        <f>M4*M5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BA4" s="2">
-        <f>N4*N5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BB4" s="2">
-        <f>O4*O5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BC4" s="2">
-        <f>P4*P5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BD4" s="2">
-        <f>Q4*Q5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BE4" s="2">
-        <f>R4*R5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1315,12 +1248,8 @@
         <v>0</v>
       </c>
       <c r="U5" s="37"/>
-      <c r="Z5" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="AQ5" s="36" t="s">
-        <v>29</v>
-      </c>
+      <c r="Z5" s="36"/>
+      <c r="AQ5" s="36"/>
     </row>
     <row r="6" spans="1:61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
@@ -1381,119 +1310,119 @@
       </c>
       <c r="U7" s="37"/>
       <c r="Z7" s="2">
-        <f>($A7+$K$3)*D7</f>
+        <f t="shared" ref="Z7:AM7" si="1">($A7+$K$3)*D7</f>
         <v>0</v>
       </c>
       <c r="AA7" s="2">
-        <f>($A7+$K$3)*E7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB7" s="2">
-        <f>($A7+$K$3)*F7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC7" s="2">
-        <f>($A7+$K$3)*G7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD7" s="2">
-        <f>($A7+$K$3)*H7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AE7" s="2">
-        <f>($A7+$K$3)*I7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF7" s="2">
-        <f>($A7+$K$3)*J7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG7" s="2">
-        <f>($A7+$K$3)*K7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH7" s="2">
-        <f>($A7+$K$3)*L7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AI7" s="2">
-        <f>($A7+$K$3)*M7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AJ7" s="2">
-        <f>($A7+$K$3)*N7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK7" s="2">
-        <f>($A7+$K$3)*O7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AL7" s="2">
-        <f>($A7+$K$3)*P7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AM7" s="2">
-        <f>($A7+$K$3)*Q7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AN7" s="2">
-        <f t="shared" ref="AN7" si="0">($A7+$K$3)*R7</f>
+        <f t="shared" ref="AN7" si="2">($A7+$K$3)*R7</f>
         <v>0</v>
       </c>
       <c r="AQ7" s="2">
-        <f>D7*D$5</f>
+        <f t="shared" ref="AQ7:BC7" si="3">D7*D$5</f>
         <v>0</v>
       </c>
       <c r="AR7" s="2">
-        <f>E7*E$5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AS7" s="2">
-        <f>F7*F$5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT7" s="2">
-        <f>G7*G$5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AU7" s="2">
-        <f>H7*H$5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AV7" s="2">
-        <f>I7*I$5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AW7" s="2">
-        <f>J7*J$5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AX7" s="2">
-        <f>K7*K$5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AY7" s="2">
-        <f>L7*L$5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AZ7" s="2">
-        <f>M7*M$5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BA7" s="2">
-        <f>N7*N$5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BB7" s="2">
-        <f>O7*O$5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BC7" s="2">
-        <f>P7*P$5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BD7" s="2">
-        <f t="shared" ref="BD7" si="1">Q7*Q$5</f>
+        <f t="shared" ref="BD7" si="4">Q7*Q$5</f>
         <v>0</v>
       </c>
       <c r="BE7" s="2">
@@ -1516,63 +1445,63 @@
         <v>24</v>
       </c>
       <c r="D8" s="6">
-        <f>SUM(Z6:Z8)</f>
+        <f t="shared" ref="D8:R8" si="5">SUM(Z6:Z8)</f>
         <v>0</v>
       </c>
       <c r="E8" s="6">
-        <f>SUM(AA6:AA8)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F8" s="6">
-        <f>SUM(AB6:AB8)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G8" s="6">
-        <f>SUM(AC6:AC8)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H8" s="6">
-        <f>SUM(AD6:AD8)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I8" s="6">
-        <f>SUM(AE6:AE8)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J8" s="6">
-        <f>SUM(AF6:AF8)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K8" s="6">
-        <f>SUM(AG6:AG8)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L8" s="6">
-        <f>SUM(AH6:AH8)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M8" s="6">
-        <f>SUM(AI6:AI8)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N8" s="6">
-        <f>SUM(AJ6:AJ8)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O8" s="6">
-        <f>SUM(AK6:AK8)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P8" s="6">
-        <f>SUM(AL6:AL8)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q8" s="6">
-        <f>SUM(AM6:AM8)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R8" s="6">
-        <f>SUM(AN6:AN8)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S8" s="43">
@@ -1592,63 +1521,63 @@
         <v>17</v>
       </c>
       <c r="D9" s="3">
-        <f>D4-D8</f>
+        <f t="shared" ref="D9:R9" si="6">D4-D8</f>
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <f>E4-E8</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <f>F4-F8</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <f>G4-G8</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <f>H4-H8</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <f>I4-I8</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <f>J4-J8</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <f>K4-K8</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L9" s="3">
-        <f>L4-L8</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M9" s="3">
-        <f>M4-M8</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <f>N4-N8</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O9" s="3">
-        <f>O4-O8</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P9" s="3">
-        <f>P4-P8</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q9" s="3">
-        <f>Q4-Q8</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R9" s="22">
-        <f>R4-R8</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S9" s="44"/>
@@ -5419,7 +5348,7 @@
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="S8:S9"/>
   </mergeCells>
-  <phoneticPr fontId="6"/>
+  <phoneticPr fontId="5"/>
   <conditionalFormatting sqref="A7:B7 D7:R7">
     <cfRule type="expression" dxfId="1" priority="17">
       <formula>MOD(ROW(),2)=0</formula>

--- a/src/main/resources/com/example/convert_toriai_pdf_to_excel/sampleFiles/sample files.xlsx
+++ b/src/main/resources/com/example/convert_toriai_pdf_to_excel/sampleFiles/sample files.xlsx
@@ -515,7 +515,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -651,19 +651,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -960,7 +956,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M21" sqref="M21"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -971,9 +967,9 @@
     <col min="19" max="19" width="7.625" style="10" customWidth="1"/>
     <col min="20" max="20" width="6.625" style="10" customWidth="1"/>
     <col min="21" max="22" width="9" style="10"/>
-    <col min="23" max="25" width="9" style="2"/>
-    <col min="26" max="61" width="9" style="2" customWidth="1"/>
-    <col min="62" max="16384" width="9" style="2"/>
+    <col min="23" max="24" width="9" style="2"/>
+    <col min="25" max="62" width="9" style="2" customWidth="1"/>
+    <col min="63" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -993,9 +989,9 @@
       <c r="F1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
       <c r="J1" s="8" t="s">
         <v>22</v>
       </c>
@@ -1005,9 +1001,9 @@
       <c r="L1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
       <c r="P1" s="8" t="s">
         <v>22</v>
       </c>
@@ -1029,9 +1025,9 @@
       <c r="B2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="8" t="s">
         <v>22</v>
       </c>
@@ -1041,9 +1037,9 @@
       <c r="H2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
       <c r="L2" s="8" t="s">
         <v>22</v>
       </c>
@@ -1504,7 +1500,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S8" s="43">
+      <c r="S8" s="41">
         <f>SUM(BH6:BH8)</f>
         <v>0</v>
       </c>
@@ -1580,7 +1576,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S9" s="44"/>
+      <c r="S9" s="42"/>
       <c r="T9" s="39"/>
     </row>
     <row r="10" spans="1:61" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -5339,13 +5335,9 @@
       <c r="AO197" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="3">
     <mergeCell ref="T8:T9"/>
     <mergeCell ref="S10:T10"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="I2:K2"/>
     <mergeCell ref="S8:S9"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
